--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="718">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1944,12 +1944,6 @@
     <t>neworderchangeVL01</t>
   </si>
   <si>
-    <t>WHSL101</t>
-  </si>
-  <si>
-    <t>659433</t>
-  </si>
-  <si>
     <t>659434</t>
   </si>
   <si>
@@ -1974,9 +1968,6 @@
     <t>WHSL105</t>
   </si>
   <si>
-    <t>wholeSaleTest0201</t>
-  </si>
-  <si>
     <t>wholeSaleTest0202</t>
   </si>
   <si>
@@ -1989,9 +1980,6 @@
     <t>wholeSaleTest0205</t>
   </si>
   <si>
-    <t>WholeSale2E1</t>
-  </si>
-  <si>
     <t>WholeSale2E2</t>
   </si>
   <si>
@@ -2004,9 +1992,6 @@
     <t>WholeSale2E5</t>
   </si>
   <si>
-    <t>WLUser_23101</t>
-  </si>
-  <si>
     <t>WLUser_23102</t>
   </si>
   <si>
@@ -2019,9 +2004,6 @@
     <t>WLUser_23105</t>
   </si>
   <si>
-    <t>WLFUser_23101</t>
-  </si>
-  <si>
     <t>WLFUser_23102</t>
   </si>
   <si>
@@ -2034,9 +2016,6 @@
     <t>WLFUser_23105</t>
   </si>
   <si>
-    <t>WLS101</t>
-  </si>
-  <si>
     <t>WLS102</t>
   </si>
   <si>
@@ -2049,9 +2028,6 @@
     <t>WLS105</t>
   </si>
   <si>
-    <t>WLOrderedit_23101</t>
-  </si>
-  <si>
     <t>WLOrderedit_23102</t>
   </si>
   <si>
@@ -2064,9 +2040,6 @@
     <t>WLOrderedit_23105</t>
   </si>
   <si>
-    <t>WLRFIedit_23101</t>
-  </si>
-  <si>
     <t>WLRFIedit_23102</t>
   </si>
   <si>
@@ -2079,9 +2052,6 @@
     <t>WLRFIedit_23105</t>
   </si>
   <si>
-    <t>wholeSale02698</t>
-  </si>
-  <si>
     <t>wholeSale02700</t>
   </si>
   <si>
@@ -2091,9 +2061,6 @@
     <t>wholeSale02702</t>
   </si>
   <si>
-    <t>SiVAN_A16</t>
-  </si>
-  <si>
     <t>SiVAN_A17</t>
   </si>
   <si>
@@ -2109,9 +2076,6 @@
     <t>SIP</t>
   </si>
   <si>
-    <t>ES (Spain)</t>
-  </si>
-  <si>
     <t>NL (Netherlands)</t>
   </si>
   <si>
@@ -2127,45 +2091,24 @@
     <t>Carrier VoIP</t>
   </si>
   <si>
-    <t>Delivery to COCOM</t>
-  </si>
-  <si>
     <t>IN Tremination</t>
   </si>
   <si>
-    <t>LONNBS1</t>
-  </si>
-  <si>
     <t>ZRHGSX2</t>
   </si>
   <si>
-    <t>4-Retail w Spanish tromboning</t>
-  </si>
-  <si>
     <t>2-Wholesale w Spanish tromboning</t>
   </si>
   <si>
-    <t>Bothways</t>
-  </si>
-  <si>
     <t>Outgoing Customer to Colt only</t>
   </si>
   <si>
-    <t>sip-udp</t>
-  </si>
-  <si>
     <t>sip-tls-tcp</t>
   </si>
   <si>
-    <t>No calls</t>
-  </si>
-  <si>
     <t>Defined</t>
   </si>
   <si>
-    <t>BE54</t>
-  </si>
-  <si>
     <t>BE55</t>
   </si>
   <si>
@@ -2178,18 +2121,9 @@
     <t>BE58</t>
   </si>
   <si>
-    <t>DEVGSX1</t>
-  </si>
-  <si>
-    <t>Add Destination IP Address</t>
-  </si>
-  <si>
     <t>Cease Trunk Group</t>
   </si>
   <si>
-    <t>1319</t>
-  </si>
-  <si>
     <t>1320</t>
   </si>
   <si>
@@ -2202,9 +2136,6 @@
     <t>1323</t>
   </si>
   <si>
-    <t>15.21.33.88</t>
-  </si>
-  <si>
     <t>15.21.33.89</t>
   </si>
   <si>
@@ -2217,9 +2148,6 @@
     <t>15.21.33.92</t>
   </si>
   <si>
-    <t>15.21.35.81</t>
-  </si>
-  <si>
     <t>15.21.35.82</t>
   </si>
   <si>
@@ -2230,9 +2158,6 @@
   </si>
   <si>
     <t>15.21.35.85</t>
-  </si>
-  <si>
-    <t>WLOrderedit_2316</t>
   </si>
   <si>
     <t>WLOrderedit_2317</t>
@@ -2720,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RE6"/>
+  <dimension ref="A1:RE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV3" sqref="BV3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4567,19 +4492,19 @@
     </row>
     <row r="2" spans="1:469">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>612</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>609</v>
@@ -4591,7 +4516,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>22</v>
@@ -4618,10 +4543,10 @@
         <v>17</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>622</v>
@@ -4630,10 +4555,10 @@
         <v>27</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>579</v>
@@ -4654,13 +4579,13 @@
         <v>582</v>
       </c>
       <c r="AD2" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE2" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="AE2" s="21" t="s">
-        <v>666</v>
-      </c>
       <c r="AF2" s="21" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AG2" s="21" t="s">
         <v>583</v>
@@ -4765,13 +4690,13 @@
         <v>27</v>
       </c>
       <c r="BO2" s="8" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="BR2" s="10" t="s">
         <v>122</v>
@@ -4783,7 +4708,7 @@
         <v>623</v>
       </c>
       <c r="BU2" s="10" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="BV2" s="10" t="s">
         <v>624</v>
@@ -4792,7 +4717,7 @@
         <v>25</v>
       </c>
       <c r="BX2" s="15" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="BY2" s="15" t="s">
         <v>39</v>
@@ -4828,7 +4753,7 @@
         <v>36</v>
       </c>
       <c r="CJ2" s="12" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="CK2" s="12" t="s">
         <v>36</v>
@@ -4837,28 +4762,28 @@
         <v>50</v>
       </c>
       <c r="CM2" s="12" t="s">
-        <v>108</v>
+        <v>688</v>
       </c>
       <c r="CN2" s="22" t="s">
-        <v>695</v>
+        <v>179</v>
       </c>
       <c r="CO2" s="12" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="CP2" s="12" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="CQ2" s="12" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="CR2" s="12" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="CS2" s="12" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="CT2" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="CU2" s="12" t="s">
         <v>64</v>
@@ -4876,7 +4801,7 @@
         <v>69</v>
       </c>
       <c r="CZ2" s="12" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="DA2" s="12" t="s">
         <v>420</v>
@@ -4894,7 +4819,7 @@
         <v>36</v>
       </c>
       <c r="DF2" s="12" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="DG2" s="12" t="s">
         <v>113</v>
@@ -4903,7 +4828,7 @@
         <v>36</v>
       </c>
       <c r="DI2" s="12" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="DJ2" s="12" t="s">
         <v>189</v>
@@ -4918,7 +4843,7 @@
         <v>82</v>
       </c>
       <c r="DN2" s="12" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="DO2" s="22" t="s">
         <v>86</v>
@@ -4936,7 +4861,7 @@
         <v>36</v>
       </c>
       <c r="DT2" s="12" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="DU2" s="12" t="s">
         <v>36</v>
@@ -5098,22 +5023,22 @@
         <v>27</v>
       </c>
       <c r="FV2" s="16" t="s">
-        <v>695</v>
+        <v>179</v>
       </c>
       <c r="FW2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="FX2" s="16" t="s">
-        <v>702</v>
+        <v>55</v>
       </c>
       <c r="FY2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="FZ2" s="16" t="s">
-        <v>719</v>
+        <v>27</v>
       </c>
       <c r="GA2" s="16" t="s">
-        <v>27</v>
+        <v>692</v>
       </c>
       <c r="GB2" s="16" t="s">
         <v>27</v>
@@ -5356,10 +5281,10 @@
         <v>402</v>
       </c>
       <c r="JD2" s="17" t="s">
-        <v>720</v>
+        <v>388</v>
       </c>
       <c r="JE2" s="17" t="s">
-        <v>721</v>
+        <v>388</v>
       </c>
       <c r="JF2" s="17" t="s">
         <v>392</v>
@@ -5722,7 +5647,7 @@
         <v>27</v>
       </c>
       <c r="NV2" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="NW2" s="3" t="s">
         <v>122</v>
@@ -5806,13 +5731,13 @@
         <v>27</v>
       </c>
       <c r="OX2" s="12" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="OY2" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ2" s="12" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="PA2" s="12" t="s">
         <v>445</v>
@@ -5890,7 +5815,7 @@
         <v>444</v>
       </c>
       <c r="PZ2" s="12" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="QA2" s="12" t="s">
         <v>445</v>
@@ -5976,7 +5901,7 @@
     </row>
     <row r="3" spans="1:469">
       <c r="A3" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>612</v>
@@ -5988,10 +5913,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>27</v>
@@ -6000,7 +5925,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>22</v>
@@ -6033,16 +5958,16 @@
         <v>122</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>579</v>
@@ -6063,13 +5988,13 @@
         <v>582</v>
       </c>
       <c r="AD3" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="AE3" s="21" t="s">
-        <v>667</v>
-      </c>
       <c r="AF3" s="21" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AG3" s="21" t="s">
         <v>583</v>
@@ -6177,10 +6102,10 @@
         <v>122</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="BR3" s="10" t="s">
         <v>122</v>
@@ -6192,16 +6117,16 @@
         <v>623</v>
       </c>
       <c r="BU3" s="10" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="BV3" s="10" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="BW3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>742</v>
+        <v>677</v>
       </c>
       <c r="BY3" s="15" t="s">
         <v>39</v>
@@ -6237,7 +6162,7 @@
         <v>36</v>
       </c>
       <c r="CJ3" s="12" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="CK3" s="12" t="s">
         <v>36</v>
@@ -6246,34 +6171,34 @@
         <v>50</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="CN3" s="22" t="s">
-        <v>179</v>
+        <v>684</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="CP3" s="12" t="s">
-        <v>703</v>
+        <v>55</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="CR3" s="12" t="s">
-        <v>707</v>
+        <v>58</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>709</v>
+        <v>60</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="CU3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="CV3" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>89</v>
@@ -6285,7 +6210,7 @@
         <v>69</v>
       </c>
       <c r="CZ3" s="12" t="s">
-        <v>711</v>
+        <v>71</v>
       </c>
       <c r="DA3" s="12" t="s">
         <v>420</v>
@@ -6303,7 +6228,7 @@
         <v>36</v>
       </c>
       <c r="DF3" s="12" t="s">
-        <v>713</v>
+        <v>110</v>
       </c>
       <c r="DG3" s="12" t="s">
         <v>113</v>
@@ -6345,7 +6270,7 @@
         <v>36</v>
       </c>
       <c r="DT3" s="12" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="DU3" s="12" t="s">
         <v>36</v>
@@ -6372,10 +6297,10 @@
         <v>95</v>
       </c>
       <c r="EC3" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="ED3" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="EE3" s="12" t="s">
         <v>409</v>
@@ -6513,7 +6438,7 @@
         <v>27</v>
       </c>
       <c r="FX3" s="16" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="FY3" s="16" t="s">
         <v>27</v>
@@ -6522,7 +6447,7 @@
         <v>27</v>
       </c>
       <c r="GA3" s="16" t="s">
-        <v>707</v>
+        <v>27</v>
       </c>
       <c r="GB3" s="16" t="s">
         <v>27</v>
@@ -6765,10 +6690,10 @@
         <v>402</v>
       </c>
       <c r="JD3" s="17" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="JE3" s="17" t="s">
-        <v>388</v>
+        <v>700</v>
       </c>
       <c r="JF3" s="17" t="s">
         <v>392</v>
@@ -7131,7 +7056,7 @@
         <v>27</v>
       </c>
       <c r="NV3" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="NW3" s="3" t="s">
         <v>122</v>
@@ -7215,13 +7140,13 @@
         <v>27</v>
       </c>
       <c r="OX3" s="12" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="OY3" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ3" s="12" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="PA3" s="12" t="s">
         <v>445</v>
@@ -7299,7 +7224,7 @@
         <v>444</v>
       </c>
       <c r="PZ3" s="12" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="QA3" s="12" t="s">
         <v>445</v>
@@ -7397,10 +7322,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>27</v>
@@ -7409,7 +7334,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>22</v>
@@ -7442,16 +7367,16 @@
         <v>122</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>579</v>
@@ -7472,13 +7397,13 @@
         <v>582</v>
       </c>
       <c r="AD4" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE4" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="AE4" s="21" t="s">
-        <v>668</v>
-      </c>
       <c r="AF4" s="21" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AG4" s="21" t="s">
         <v>583</v>
@@ -7586,10 +7511,10 @@
         <v>122</v>
       </c>
       <c r="BP4" s="10" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="BQ4" s="10" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="BR4" s="10" t="s">
         <v>122</v>
@@ -7601,16 +7526,16 @@
         <v>623</v>
       </c>
       <c r="BU4" s="10" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="BV4" s="10" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="BW4" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="BY4" s="15" t="s">
         <v>39</v>
@@ -7646,7 +7571,7 @@
         <v>36</v>
       </c>
       <c r="CJ4" s="12" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="CK4" s="12" t="s">
         <v>36</v>
@@ -7655,13 +7580,13 @@
         <v>50</v>
       </c>
       <c r="CM4" s="12" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="CN4" s="22" t="s">
-        <v>695</v>
+        <v>179</v>
       </c>
       <c r="CO4" s="12" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="CP4" s="12" t="s">
         <v>55</v>
@@ -7754,7 +7679,7 @@
         <v>36</v>
       </c>
       <c r="DT4" s="12" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="DU4" s="12" t="s">
         <v>36</v>
@@ -7781,10 +7706,10 @@
         <v>95</v>
       </c>
       <c r="EC4" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="ED4" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="EE4" s="12" t="s">
         <v>409</v>
@@ -8174,10 +8099,10 @@
         <v>402</v>
       </c>
       <c r="JD4" s="17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="JE4" s="17" t="s">
-        <v>721</v>
+        <v>388</v>
       </c>
       <c r="JF4" s="17" t="s">
         <v>392</v>
@@ -8540,7 +8465,7 @@
         <v>27</v>
       </c>
       <c r="NV4" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="NW4" s="3" t="s">
         <v>122</v>
@@ -8624,13 +8549,13 @@
         <v>27</v>
       </c>
       <c r="OX4" s="12" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="OY4" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ4" s="12" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="PA4" s="12" t="s">
         <v>445</v>
@@ -8708,7 +8633,7 @@
         <v>444</v>
       </c>
       <c r="PZ4" s="12" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="QA4" s="12" t="s">
         <v>445</v>
@@ -8806,7 +8731,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>609</v>
@@ -8818,7 +8743,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>22</v>
@@ -8857,10 +8782,10 @@
         <v>27</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>579</v>
@@ -8881,13 +8806,13 @@
         <v>582</v>
       </c>
       <c r="AD5" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE5" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="AE5" s="21" t="s">
-        <v>669</v>
-      </c>
       <c r="AF5" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AG5" s="21" t="s">
         <v>583</v>
@@ -8995,10 +8920,10 @@
         <v>122</v>
       </c>
       <c r="BP5" s="10" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="BQ5" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="BR5" s="10" t="s">
         <v>122</v>
@@ -9010,7 +8935,7 @@
         <v>623</v>
       </c>
       <c r="BU5" s="10" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="BV5" s="10" t="s">
         <v>624</v>
@@ -9019,7 +8944,7 @@
         <v>25</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>39</v>
@@ -9055,7 +8980,7 @@
         <v>36</v>
       </c>
       <c r="CJ5" s="12" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="CK5" s="12" t="s">
         <v>36</v>
@@ -9064,13 +8989,13 @@
         <v>50</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>700</v>
+        <v>108</v>
       </c>
       <c r="CN5" s="22" t="s">
-        <v>179</v>
+        <v>684</v>
       </c>
       <c r="CO5" s="12" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="CP5" s="12" t="s">
         <v>55</v>
@@ -9163,7 +9088,7 @@
         <v>36</v>
       </c>
       <c r="DT5" s="12" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="DU5" s="12" t="s">
         <v>36</v>
@@ -9949,7 +9874,7 @@
         <v>27</v>
       </c>
       <c r="NV5" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="NW5" s="3" t="s">
         <v>122</v>
@@ -10033,13 +9958,13 @@
         <v>27</v>
       </c>
       <c r="OX5" s="12" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="OY5" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ5" s="12" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="PA5" s="12" t="s">
         <v>445</v>
@@ -10117,7 +10042,7 @@
         <v>444</v>
       </c>
       <c r="PZ5" s="12" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="QA5" s="12" t="s">
         <v>445</v>
@@ -10198,1415 +10123,6 @@
         <v>312</v>
       </c>
       <c r="RA5" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:469">
-      <c r="A6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="AB6" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="AC6" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="AG6" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="AI6" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="AP6" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="AS6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY6" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="AZ6" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="BA6" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB6" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="BC6" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="BD6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE6" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="BF6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG6" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="BH6" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="BI6" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ6" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="BK6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BL6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BN6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BO6" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="BP6" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="BQ6" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="BR6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT6" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="BU6" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="BV6" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="BW6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="BX6" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="BY6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="CB6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="CC6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="CE6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="CF6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="CG6" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="CH6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ6" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="CK6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="CM6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN6" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="CO6" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="CP6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="CQ6" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="CR6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="CS6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="CT6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="CV6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="CW6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="CX6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="CY6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="CZ6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="DA6" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="DB6" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="DC6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="DG6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="DH6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="DJ6" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DK6" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DL6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="DM6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="DN6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="DO6" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="DP6" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="DQ6" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="DR6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="DS6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT6" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="DU6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX6" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="DY6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="DZ6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="EA6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="EB6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="EC6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="EE6" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="EF6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="EG6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="EH6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="EI6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="EJ6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="EK6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="EL6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="EM6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="EO6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="EP6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="EQ6" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="ER6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="ET6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="EV6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="EW6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="EX6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="EY6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="EZ6" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="FA6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="FC6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="FD6" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="FE6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FF6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="FG6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="FH6" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FJ6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="FK6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="FL6" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="FM6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="FN6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FO6" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="FP6" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="FQ6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FR6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FS6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FT6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="FU6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="FV6" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="FW6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="FX6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="FY6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="FZ6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GA6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GB6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GC6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GD6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GE6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GF6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GG6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GH6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="GI6" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="GJ6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="GK6" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="GL6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GM6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GN6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GO6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="GP6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GQ6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GR6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GS6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GT6" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="GU6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="GV6" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="GW6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GX6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GY6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="GZ6" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="HA6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="HB6" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="HC6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="HD6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="HE6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="HF6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="HG6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="HH6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HI6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="HJ6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="HK6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="HL6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="HM6" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="HN6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="HO6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HP6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="HQ6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="HR6" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="HS6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="HT6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HU6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="HV6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="HW6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="HX6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="HY6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="HZ6" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="IA6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IB6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IC6" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="ID6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="IE6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IF6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IG6" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="IH6" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="II6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IJ6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IK6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="IL6" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="IM6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IN6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IO6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="IP6" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="IQ6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IR6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IS6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="IT6" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="IU6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="IV6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="IW6" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="IX6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="IY6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="IZ6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="JA6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="JB6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="JC6" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="JD6" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="JE6" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="JF6" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="JG6" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="JH6" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="JI6" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="JJ6" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="JK6" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="JL6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="JM6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="JN6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="JO6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="JP6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="JQ6" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="JR6" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="JS6" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="JT6" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="JU6" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="JV6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="JW6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="JX6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="JY6" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="JZ6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="KA6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KB6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="KC6" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="KD6" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="KE6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="KF6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KG6" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="KH6" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="KI6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="KJ6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KK6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="KL6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="KM6" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="KN6" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="KO6" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="KP6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="KQ6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="KR6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="KS6" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="KT6" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="KU6" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="KV6" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="KW6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="KX6" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="KY6" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="KZ6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="LA6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LB6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LC6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LD6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LE6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LF6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="LG6" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="LH6" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="LI6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="LJ6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LK6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="LL6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="LM6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="LN6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="LO6" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="LP6" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="LQ6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LR6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LS6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LT6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LU6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LV6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LW6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LX6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LY6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="LZ6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="MA6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="MB6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="MC6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="MD6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="ME6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="MF6" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="MG6" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="MH6" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="MI6" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="MJ6" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="MK6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="ML6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="MM6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="MN6" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="MO6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="MP6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="MQ6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="MR6" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="MS6" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="MT6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="MU6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="MV6" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="MW6" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="MX6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="MY6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="MZ6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="NA6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="NB6" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="NC6" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="ND6" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="NE6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="NF6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="NG6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="NH6" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="NI6" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="NJ6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="NK6" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="NL6" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="NM6" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="NN6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NO6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NP6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NQ6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NR6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NS6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NT6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NU6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NV6" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="NW6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="NX6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="NY6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="NZ6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="OA6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OB6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OC6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="OD6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="OE6" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="OF6" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="OG6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="OH6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OI6" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="OJ6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OK6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OL6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OM6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="ON6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OO6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OP6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OQ6" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="OR6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="OS6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OT6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="OU6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="OV6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OW6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="OX6" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="OY6" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="OZ6" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="PA6" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="PB6" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="PC6" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="PD6" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="PE6" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="PF6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="PG6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="PH6" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="PI6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PJ6" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="PK6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PL6" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="PM6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="PN6" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="PO6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="PP6" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="PQ6" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="PR6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="PS6" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="PT6" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="PU6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PV6" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="PW6" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="PX6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="PY6" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="PZ6" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="QA6" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="QB6" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="QC6" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="QD6" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="QE6" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="QF6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="QG6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="QH6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QI6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QJ6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QK6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QL6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QM6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QN6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QO6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QP6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QQ6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QR6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QS6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QT6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QU6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QV6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QW6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="QX6" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="QY6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="QZ6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="RA6" s="12" t="s">
         <v>312</v>
       </c>
     </row>
@@ -11624,11 +10140,8 @@
     <hyperlink ref="M5" r:id="rId10"/>
     <hyperlink ref="BZ5" r:id="rId11"/>
     <hyperlink ref="AH5" r:id="rId12" display="mailto:NGINUser_1306@gmail.com"/>
-    <hyperlink ref="M6" r:id="rId13"/>
-    <hyperlink ref="BZ6" r:id="rId14"/>
-    <hyperlink ref="AH6" r:id="rId15" display="mailto:NGINUser_1306@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="719">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1584,9 +1584,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>IU91_p</t>
-  </si>
-  <si>
     <t>1187</t>
   </si>
   <si>
@@ -2109,9 +2106,6 @@
     <t>Defined</t>
   </si>
   <si>
-    <t>BE55</t>
-  </si>
-  <si>
     <t>BE56</t>
   </si>
   <si>
@@ -2172,7 +2166,16 @@
     <t>WLOrderedit_2320</t>
   </si>
   <si>
-    <t>wholeSale02703</t>
+    <t>IU92_p</t>
+  </si>
+  <si>
+    <t>wholeSale02709</t>
+  </si>
+  <si>
+    <t>HA_COS_NL1</t>
+  </si>
+  <si>
+    <t>RNL_NAT</t>
   </si>
 </sst>
 </file>
@@ -2647,9 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2771,7 +2772,7 @@
     <col min="140" max="140" width="22.140625" style="1" customWidth="1"/>
     <col min="141" max="141" width="34.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="142" max="142" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="20.7109375" style="1" customWidth="1"/>
+    <col min="143" max="143" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="146" max="146" width="24.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3083,22 +3084,22 @@
   <sheetData>
     <row r="1" spans="1:469">
       <c r="A1" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>605</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>606</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>5</v>
@@ -3152,157 +3153,157 @@
         <v>3</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AJ1" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AY1" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="AS1" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="BN1" s="6" t="s">
-        <v>578</v>
-      </c>
       <c r="BO1" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BP1" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BR1" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="BV1" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="BR1" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="BS1" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="BT1" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="BU1" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="BV1" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="BW1" s="15" t="s">
         <v>26</v>
@@ -3866,7 +3867,7 @@
         <v>277</v>
       </c>
       <c r="JB1" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="JC1" s="17" t="s">
         <v>385</v>
@@ -4265,61 +4266,61 @@
         <v>432</v>
       </c>
       <c r="OE1" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="OF1" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="OF1" s="16" t="s">
+      <c r="OG1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="OT1" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="OU1" s="3" t="s">
         <v>371</v>
       </c>
       <c r="OV1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="OW1" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="OW1" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="OX1" s="12" t="s">
         <v>434</v>
@@ -4495,7 +4496,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>122</v>
@@ -4504,10 +4505,10 @@
         <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>27</v>
@@ -4516,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>22</v>
@@ -4528,13 +4529,13 @@
         <v>16</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>4</v>
@@ -4549,19 +4550,19 @@
         <v>122</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Y2" s="21" t="s">
         <v>19</v>
@@ -4570,58 +4571,58 @@
         <v>11</v>
       </c>
       <c r="AA2" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB2" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AC2" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AD2" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="AG2" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="AD2" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AH2" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="AS2" s="8" t="s">
         <v>27</v>
@@ -4642,41 +4643,41 @@
         <v>27</v>
       </c>
       <c r="AY2" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AZ2" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="BA2" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="BC2" s="22" t="s">
+      <c r="BD2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="BH2" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="BD2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BI2" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="BH2" s="22" t="s">
+      <c r="BJ2" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="BI2" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ2" s="22" t="s">
-        <v>599</v>
-      </c>
       <c r="BK2" s="8" t="s">
         <v>27</v>
       </c>
@@ -4693,10 +4694,10 @@
         <v>122</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="BR2" s="10" t="s">
         <v>122</v>
@@ -4705,19 +4706,19 @@
         <v>122</v>
       </c>
       <c r="BT2" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="BU2" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="BV2" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="BU2" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="BW2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX2" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BY2" s="15" t="s">
         <v>39</v>
@@ -4753,7 +4754,7 @@
         <v>36</v>
       </c>
       <c r="CJ2" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CK2" s="12" t="s">
         <v>36</v>
@@ -4762,25 +4763,25 @@
         <v>50</v>
       </c>
       <c r="CM2" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CN2" s="22" t="s">
         <v>179</v>
       </c>
       <c r="CO2" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="CP2" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="CQ2" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="CQ2" s="12" t="s">
+      <c r="CR2" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="CR2" s="12" t="s">
+      <c r="CS2" s="12" t="s">
         <v>692</v>
-      </c>
-      <c r="CS2" s="12" t="s">
-        <v>693</v>
       </c>
       <c r="CT2" s="12" t="s">
         <v>50</v>
@@ -4801,7 +4802,7 @@
         <v>69</v>
       </c>
       <c r="CZ2" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="DA2" s="12" t="s">
         <v>420</v>
@@ -4819,7 +4820,7 @@
         <v>36</v>
       </c>
       <c r="DF2" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="DG2" s="12" t="s">
         <v>113</v>
@@ -4873,7 +4874,7 @@
         <v>121</v>
       </c>
       <c r="DX2" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DY2" s="12" t="s">
         <v>122</v>
@@ -4888,13 +4889,13 @@
         <v>95</v>
       </c>
       <c r="EC2" s="12" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="ED2" s="12" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="EE2" s="12" t="s">
-        <v>409</v>
+        <v>717</v>
       </c>
       <c r="EF2" s="12" t="s">
         <v>132</v>
@@ -4930,7 +4931,7 @@
         <v>29</v>
       </c>
       <c r="EQ2" s="12" t="s">
-        <v>410</v>
+        <v>718</v>
       </c>
       <c r="ER2" s="12" t="s">
         <v>146</v>
@@ -5005,7 +5006,7 @@
         <v>176</v>
       </c>
       <c r="FP2" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="FQ2" s="12" t="s">
         <v>36</v>
@@ -5038,7 +5039,7 @@
         <v>27</v>
       </c>
       <c r="GA2" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="GB2" s="16" t="s">
         <v>27</v>
@@ -5419,7 +5420,7 @@
         <v>333</v>
       </c>
       <c r="KX2" s="3" t="s">
-        <v>521</v>
+        <v>715</v>
       </c>
       <c r="KY2" s="5" t="s">
         <v>408</v>
@@ -5647,7 +5648,7 @@
         <v>27</v>
       </c>
       <c r="NV2" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="NW2" s="3" t="s">
         <v>122</v>
@@ -5686,7 +5687,7 @@
         <v>27</v>
       </c>
       <c r="OI2" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="OJ2" s="3" t="s">
         <v>27</v>
@@ -5710,7 +5711,7 @@
         <v>27</v>
       </c>
       <c r="OQ2" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="OR2" s="3" t="s">
         <v>36</v>
@@ -5731,13 +5732,13 @@
         <v>27</v>
       </c>
       <c r="OX2" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="OY2" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ2" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="PA2" s="12" t="s">
         <v>445</v>
@@ -5779,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="PN2" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="PO2" s="19" t="s">
         <v>122</v>
@@ -5788,7 +5789,7 @@
         <v>467</v>
       </c>
       <c r="PQ2" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="PR2" s="19" t="s">
         <v>122</v>
@@ -5797,16 +5798,16 @@
         <v>468</v>
       </c>
       <c r="PT2" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="PU2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PV2" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="PU2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PV2" s="19" t="s">
+      <c r="PW2" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="PW2" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="PX2" s="12" t="s">
         <v>27</v>
@@ -5815,7 +5816,7 @@
         <v>444</v>
       </c>
       <c r="PZ2" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="QA2" s="12" t="s">
         <v>445</v>
@@ -5904,7 +5905,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>122</v>
@@ -5913,10 +5914,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>27</v>
@@ -5925,7 +5926,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>22</v>
@@ -5937,13 +5938,13 @@
         <v>16</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>4</v>
@@ -5958,19 +5959,19 @@
         <v>122</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Y3" s="21" t="s">
         <v>19</v>
@@ -5979,58 +5980,58 @@
         <v>11</v>
       </c>
       <c r="AA3" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AD3" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="AG3" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="AD3" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AH3" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="AS3" s="8" t="s">
         <v>27</v>
@@ -6051,41 +6052,41 @@
         <v>27</v>
       </c>
       <c r="AY3" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AZ3" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="BA3" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="BB3" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BC3" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="BC3" s="22" t="s">
+      <c r="BD3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="BH3" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="BD3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BI3" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="BH3" s="22" t="s">
+      <c r="BJ3" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="BI3" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ3" s="22" t="s">
-        <v>599</v>
-      </c>
       <c r="BK3" s="8" t="s">
         <v>27</v>
       </c>
@@ -6102,10 +6103,10 @@
         <v>122</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BR3" s="10" t="s">
         <v>122</v>
@@ -6114,19 +6115,19 @@
         <v>122</v>
       </c>
       <c r="BT3" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="BU3" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BV3" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="BW3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BY3" s="15" t="s">
         <v>39</v>
@@ -6162,7 +6163,7 @@
         <v>36</v>
       </c>
       <c r="CJ3" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CK3" s="12" t="s">
         <v>36</v>
@@ -6171,19 +6172,19 @@
         <v>50</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CN3" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="CP3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CR3" s="12" t="s">
         <v>58</v>
@@ -6270,7 +6271,7 @@
         <v>36</v>
       </c>
       <c r="DT3" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="DU3" s="12" t="s">
         <v>36</v>
@@ -6282,7 +6283,7 @@
         <v>121</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DY3" s="12" t="s">
         <v>122</v>
@@ -6414,7 +6415,7 @@
         <v>176</v>
       </c>
       <c r="FP3" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="FQ3" s="12" t="s">
         <v>36</v>
@@ -6693,7 +6694,7 @@
         <v>402</v>
       </c>
       <c r="JE3" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="JF3" s="17" t="s">
         <v>392</v>
@@ -6828,7 +6829,7 @@
         <v>333</v>
       </c>
       <c r="KX3" s="3" t="s">
-        <v>521</v>
+        <v>715</v>
       </c>
       <c r="KY3" s="5" t="s">
         <v>408</v>
@@ -7056,7 +7057,7 @@
         <v>27</v>
       </c>
       <c r="NV3" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="NW3" s="3" t="s">
         <v>122</v>
@@ -7095,7 +7096,7 @@
         <v>27</v>
       </c>
       <c r="OI3" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="OJ3" s="3" t="s">
         <v>27</v>
@@ -7119,7 +7120,7 @@
         <v>27</v>
       </c>
       <c r="OQ3" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="OR3" s="3" t="s">
         <v>36</v>
@@ -7140,13 +7141,13 @@
         <v>27</v>
       </c>
       <c r="OX3" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="OY3" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ3" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="PA3" s="12" t="s">
         <v>445</v>
@@ -7188,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="PN3" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="PO3" s="19" t="s">
         <v>122</v>
@@ -7197,7 +7198,7 @@
         <v>467</v>
       </c>
       <c r="PQ3" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="PR3" s="19" t="s">
         <v>122</v>
@@ -7206,16 +7207,16 @@
         <v>468</v>
       </c>
       <c r="PT3" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="PU3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PV3" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="PU3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PV3" s="19" t="s">
+      <c r="PW3" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="PW3" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="PX3" s="12" t="s">
         <v>27</v>
@@ -7224,7 +7225,7 @@
         <v>444</v>
       </c>
       <c r="PZ3" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="QA3" s="12" t="s">
         <v>445</v>
@@ -7313,7 +7314,7 @@
         <v>122</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>122</v>
@@ -7322,10 +7323,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>27</v>
@@ -7334,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>22</v>
@@ -7346,13 +7347,13 @@
         <v>16</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>4</v>
@@ -7367,19 +7368,19 @@
         <v>122</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Y4" s="21" t="s">
         <v>19</v>
@@ -7388,58 +7389,58 @@
         <v>11</v>
       </c>
       <c r="AA4" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB4" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AC4" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AD4" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="AG4" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="AD4" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>663</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AH4" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="AS4" s="8" t="s">
         <v>27</v>
@@ -7460,41 +7461,41 @@
         <v>27</v>
       </c>
       <c r="AY4" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AZ4" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="BA4" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="BB4" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="BB4" s="8" t="s">
+      <c r="BC4" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="BC4" s="22" t="s">
+      <c r="BD4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="BH4" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="BD4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG4" s="8" t="s">
+      <c r="BI4" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="BH4" s="22" t="s">
+      <c r="BJ4" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="BI4" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ4" s="22" t="s">
-        <v>599</v>
-      </c>
       <c r="BK4" s="8" t="s">
         <v>27</v>
       </c>
@@ -7511,10 +7512,10 @@
         <v>122</v>
       </c>
       <c r="BP4" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BQ4" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BR4" s="10" t="s">
         <v>122</v>
@@ -7523,19 +7524,19 @@
         <v>122</v>
       </c>
       <c r="BT4" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="BU4" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="BV4" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="BU4" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="BV4" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="BW4" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BY4" s="15" t="s">
         <v>39</v>
@@ -7571,7 +7572,7 @@
         <v>36</v>
       </c>
       <c r="CJ4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CK4" s="12" t="s">
         <v>36</v>
@@ -7580,19 +7581,19 @@
         <v>50</v>
       </c>
       <c r="CM4" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="CN4" s="22" t="s">
         <v>179</v>
       </c>
       <c r="CO4" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CP4" s="12" t="s">
         <v>55</v>
       </c>
       <c r="CQ4" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CR4" s="12" t="s">
         <v>58</v>
@@ -7679,7 +7680,7 @@
         <v>36</v>
       </c>
       <c r="DT4" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="DU4" s="12" t="s">
         <v>36</v>
@@ -7691,7 +7692,7 @@
         <v>121</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DY4" s="12" t="s">
         <v>122</v>
@@ -7823,7 +7824,7 @@
         <v>176</v>
       </c>
       <c r="FP4" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="FQ4" s="12" t="s">
         <v>36</v>
@@ -8237,7 +8238,7 @@
         <v>333</v>
       </c>
       <c r="KX4" s="3" t="s">
-        <v>521</v>
+        <v>715</v>
       </c>
       <c r="KY4" s="5" t="s">
         <v>408</v>
@@ -8465,7 +8466,7 @@
         <v>27</v>
       </c>
       <c r="NV4" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="NW4" s="3" t="s">
         <v>122</v>
@@ -8504,7 +8505,7 @@
         <v>27</v>
       </c>
       <c r="OI4" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="OJ4" s="3" t="s">
         <v>27</v>
@@ -8528,7 +8529,7 @@
         <v>27</v>
       </c>
       <c r="OQ4" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="OR4" s="3" t="s">
         <v>36</v>
@@ -8549,13 +8550,13 @@
         <v>27</v>
       </c>
       <c r="OX4" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="OY4" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ4" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="PA4" s="12" t="s">
         <v>445</v>
@@ -8597,7 +8598,7 @@
         <v>4</v>
       </c>
       <c r="PN4" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="PO4" s="19" t="s">
         <v>122</v>
@@ -8606,7 +8607,7 @@
         <v>467</v>
       </c>
       <c r="PQ4" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="PR4" s="19" t="s">
         <v>122</v>
@@ -8615,16 +8616,16 @@
         <v>468</v>
       </c>
       <c r="PT4" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="PU4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PV4" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="PU4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PV4" s="19" t="s">
+      <c r="PW4" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="PW4" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="PX4" s="12" t="s">
         <v>27</v>
@@ -8633,7 +8634,7 @@
         <v>444</v>
       </c>
       <c r="PZ4" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="QA4" s="12" t="s">
         <v>445</v>
@@ -8722,7 +8723,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>122</v>
@@ -8731,10 +8732,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>27</v>
@@ -8743,7 +8744,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>22</v>
@@ -8755,13 +8756,13 @@
         <v>16</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>4</v>
@@ -8776,19 +8777,19 @@
         <v>122</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Y5" s="21" t="s">
         <v>19</v>
@@ -8797,58 +8798,58 @@
         <v>11</v>
       </c>
       <c r="AA5" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AC5" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AD5" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG5" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="AD5" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="AF5" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AH5" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AI5" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AM5" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AN5" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AO5" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="AO5" s="8" t="s">
+      <c r="AP5" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="AQ5" s="8" t="s">
+      <c r="AR5" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="AS5" s="8" t="s">
         <v>27</v>
@@ -8869,41 +8870,41 @@
         <v>27</v>
       </c>
       <c r="AY5" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="AZ5" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="BA5" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="BB5" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="BB5" s="8" t="s">
+      <c r="BC5" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="BC5" s="22" t="s">
+      <c r="BD5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE5" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG5" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="BH5" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="BD5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE5" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="BF5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG5" s="8" t="s">
+      <c r="BI5" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="BH5" s="22" t="s">
+      <c r="BJ5" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="BI5" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="BJ5" s="22" t="s">
-        <v>599</v>
-      </c>
       <c r="BK5" s="8" t="s">
         <v>27</v>
       </c>
@@ -8920,10 +8921,10 @@
         <v>122</v>
       </c>
       <c r="BP5" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="BQ5" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BR5" s="10" t="s">
         <v>122</v>
@@ -8932,19 +8933,19 @@
         <v>122</v>
       </c>
       <c r="BT5" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="BU5" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="BV5" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="BU5" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="BV5" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="BW5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>39</v>
@@ -8980,7 +8981,7 @@
         <v>36</v>
       </c>
       <c r="CJ5" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CK5" s="12" t="s">
         <v>36</v>
@@ -8992,7 +8993,7 @@
         <v>108</v>
       </c>
       <c r="CN5" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CO5" s="12" t="s">
         <v>406</v>
@@ -9001,7 +9002,7 @@
         <v>55</v>
       </c>
       <c r="CQ5" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CR5" s="12" t="s">
         <v>58</v>
@@ -9088,7 +9089,7 @@
         <v>36</v>
       </c>
       <c r="DT5" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="DU5" s="12" t="s">
         <v>36</v>
@@ -9100,7 +9101,7 @@
         <v>121</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DY5" s="12" t="s">
         <v>122</v>
@@ -9232,7 +9233,7 @@
         <v>176</v>
       </c>
       <c r="FP5" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="FQ5" s="12" t="s">
         <v>36</v>
@@ -9646,7 +9647,7 @@
         <v>333</v>
       </c>
       <c r="KX5" s="3" t="s">
-        <v>521</v>
+        <v>715</v>
       </c>
       <c r="KY5" s="5" t="s">
         <v>408</v>
@@ -9874,7 +9875,7 @@
         <v>27</v>
       </c>
       <c r="NV5" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="NW5" s="3" t="s">
         <v>122</v>
@@ -9913,7 +9914,7 @@
         <v>27</v>
       </c>
       <c r="OI5" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="OJ5" s="3" t="s">
         <v>27</v>
@@ -9937,7 +9938,7 @@
         <v>27</v>
       </c>
       <c r="OQ5" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="OR5" s="3" t="s">
         <v>36</v>
@@ -9958,13 +9959,13 @@
         <v>27</v>
       </c>
       <c r="OX5" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="OY5" s="12" t="s">
         <v>444</v>
       </c>
       <c r="OZ5" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="PA5" s="12" t="s">
         <v>445</v>
@@ -10006,7 +10007,7 @@
         <v>4</v>
       </c>
       <c r="PN5" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="PO5" s="19" t="s">
         <v>122</v>
@@ -10015,7 +10016,7 @@
         <v>467</v>
       </c>
       <c r="PQ5" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="PR5" s="19" t="s">
         <v>122</v>
@@ -10024,16 +10025,16 @@
         <v>468</v>
       </c>
       <c r="PT5" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="PU5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PV5" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="PU5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="PV5" s="19" t="s">
+      <c r="PW5" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="PW5" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="PX5" s="12" t="s">
         <v>27</v>
@@ -10042,7 +10043,7 @@
         <v>444</v>
       </c>
       <c r="PZ5" s="12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="QA5" s="12" t="s">
         <v>445</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="772">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1968,15 +1968,9 @@
     <t>WholeSale2E6</t>
   </si>
   <si>
-    <t>WholeSale2E8</t>
-  </si>
-  <si>
     <t>wholesaleRegres_05</t>
   </si>
   <si>
-    <t>wholesaleRegres_07</t>
-  </si>
-  <si>
     <t>WHOSLA01</t>
   </si>
   <si>
@@ -1998,9 +1992,6 @@
     <t>who_edi024</t>
   </si>
   <si>
-    <t>who_edi025</t>
-  </si>
-  <si>
     <t>WLRFIedit_23121</t>
   </si>
   <si>
@@ -2013,9 +2004,6 @@
     <t>WLRFIedit_23124</t>
   </si>
   <si>
-    <t>WLRFIedit_23125</t>
-  </si>
-  <si>
     <t>wholeSale02821</t>
   </si>
   <si>
@@ -2025,9 +2013,6 @@
     <t>wholeSale02824</t>
   </si>
   <si>
-    <t>wholeSale02825</t>
-  </si>
-  <si>
     <t>TORDNO_A10</t>
   </si>
   <si>
@@ -2037,9 +2022,6 @@
     <t>TORDNO_A13</t>
   </si>
   <si>
-    <t>TORDNO_A14</t>
-  </si>
-  <si>
     <t>YG21</t>
   </si>
   <si>
@@ -2049,9 +2031,6 @@
     <t>YG24</t>
   </si>
   <si>
-    <t>YG25</t>
-  </si>
-  <si>
     <t>SBCExecution006</t>
   </si>
   <si>
@@ -2151,9 +2130,6 @@
     <t>153</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
     <t>PE68</t>
   </si>
   <si>
@@ -2175,9 +2151,6 @@
     <t>1716</t>
   </si>
   <si>
-    <t>1717</t>
-  </si>
-  <si>
     <t>1188</t>
   </si>
   <si>
@@ -2341,6 +2314,27 @@
   </si>
   <si>
     <t>GSN87</t>
+  </si>
+  <si>
+    <t>wholesaleRegres_0410</t>
+  </si>
+  <si>
+    <t>WholeSale2E41</t>
+  </si>
+  <si>
+    <t>who_edi041</t>
+  </si>
+  <si>
+    <t>wholeSale02826</t>
+  </si>
+  <si>
+    <t>TORDNO_A15</t>
+  </si>
+  <si>
+    <t>YG04</t>
+  </si>
+  <si>
+    <t>1504</t>
   </si>
 </sst>
 </file>
@@ -4064,7 +4058,7 @@
         <v>374</v>
       </c>
       <c r="JH1" s="17" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="JI1" s="17" t="s">
         <v>375</v>
@@ -4699,7 +4693,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>592</v>
@@ -4888,10 +4882,10 @@
         <v>36</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="BR2" s="10" t="s">
         <v>117</v>
@@ -4912,7 +4906,7 @@
         <v>25</v>
       </c>
       <c r="BX2" s="15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="BY2" s="15" t="s">
         <v>39</v>
@@ -4960,7 +4954,7 @@
         <v>36</v>
       </c>
       <c r="CN2" s="12" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="CO2" s="12" t="s">
         <v>36</v>
@@ -5068,7 +5062,7 @@
         <v>36</v>
       </c>
       <c r="DX2" s="12" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="DY2" s="12" t="s">
         <v>36</v>
@@ -5488,7 +5482,7 @@
         <v>391</v>
       </c>
       <c r="JH2" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="JI2" s="17" t="s">
         <v>377</v>
@@ -5857,7 +5851,7 @@
         <v>27</v>
       </c>
       <c r="OA2" s="5" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="OB2" s="3" t="s">
         <v>117</v>
@@ -5920,7 +5914,7 @@
         <v>27</v>
       </c>
       <c r="OV2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="OW2" s="3" t="s">
         <v>36</v>
@@ -5941,13 +5935,13 @@
         <v>27</v>
       </c>
       <c r="PC2" s="12" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="PD2" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE2" s="12" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="PF2" s="12" t="s">
         <v>431</v>
@@ -6123,10 +6117,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>27</v>
@@ -6168,16 +6162,16 @@
         <v>36</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>770</v>
-      </c>
       <c r="W3" s="12" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>563</v>
@@ -6312,10 +6306,10 @@
         <v>117</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="BR3" s="10" t="s">
         <v>117</v>
@@ -6336,7 +6330,7 @@
         <v>25</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="BY3" s="15" t="s">
         <v>39</v>
@@ -6384,7 +6378,7 @@
         <v>36</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="CO3" s="12" t="s">
         <v>36</v>
@@ -6492,7 +6486,7 @@
         <v>36</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="DY3" s="12" t="s">
         <v>36</v>
@@ -6912,7 +6906,7 @@
         <v>391</v>
       </c>
       <c r="JH3" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="JI3" s="17" t="s">
         <v>377</v>
@@ -6921,22 +6915,22 @@
         <v>377</v>
       </c>
       <c r="JK3" s="17" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="JL3" s="17" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="JM3" s="17" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="JN3" s="17" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="JO3" s="17" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="JP3" s="17" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="JQ3" s="12" t="s">
         <v>27</v>
@@ -7053,7 +7047,7 @@
         <v>325</v>
       </c>
       <c r="LC3" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="LD3" s="5" t="s">
         <v>395</v>
@@ -7080,10 +7074,10 @@
         <v>205</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="LM3" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="LN3" s="3" t="s">
         <v>36</v>
@@ -7248,7 +7242,7 @@
         <v>325</v>
       </c>
       <c r="NP3" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="NQ3" s="3" t="s">
         <v>372</v>
@@ -7281,7 +7275,7 @@
         <v>27</v>
       </c>
       <c r="OA3" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="OB3" s="3" t="s">
         <v>117</v>
@@ -7365,13 +7359,13 @@
         <v>27</v>
       </c>
       <c r="PC3" s="12" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="PD3" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE3" s="12" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="PF3" s="12" t="s">
         <v>431</v>
@@ -7380,13 +7374,13 @@
         <v>432</v>
       </c>
       <c r="PH3" s="12" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="PI3" s="12" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="PJ3" s="12" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="PK3" s="12" t="s">
         <v>27</v>
@@ -7437,10 +7431,10 @@
         <v>36</v>
       </c>
       <c r="QA3" s="19" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="QB3" s="19" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="QC3" s="12" t="s">
         <v>27</v>
@@ -7527,10 +7521,10 @@
         <v>303</v>
       </c>
       <c r="RE3" s="12" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="RF3" s="12" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:474">
@@ -7547,7 +7541,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>592</v>
@@ -7598,7 +7592,7 @@
         <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>648</v>
@@ -7736,10 +7730,10 @@
         <v>117</v>
       </c>
       <c r="BP4" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="BQ4" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="BR4" s="10" t="s">
         <v>117</v>
@@ -7760,7 +7754,7 @@
         <v>25</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="BY4" s="15" t="s">
         <v>39</v>
@@ -7808,7 +7802,7 @@
         <v>36</v>
       </c>
       <c r="CN4" s="12" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="CO4" s="12" t="s">
         <v>36</v>
@@ -7916,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="DY4" s="12" t="s">
         <v>36</v>
@@ -8336,7 +8330,7 @@
         <v>391</v>
       </c>
       <c r="JH4" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="JI4" s="17" t="s">
         <v>377</v>
@@ -8345,22 +8339,22 @@
         <v>377</v>
       </c>
       <c r="JK4" s="17" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="JL4" s="17" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="JM4" s="17" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="JN4" s="17" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="JO4" s="17" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="JP4" s="17" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="JQ4" s="12" t="s">
         <v>27</v>
@@ -8477,7 +8471,7 @@
         <v>325</v>
       </c>
       <c r="LC4" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="LD4" s="5" t="s">
         <v>395</v>
@@ -8507,7 +8501,7 @@
         <v>88</v>
       </c>
       <c r="LM4" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="LN4" s="3" t="s">
         <v>36</v>
@@ -8672,7 +8666,7 @@
         <v>325</v>
       </c>
       <c r="NP4" s="3" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="NQ4" s="3" t="s">
         <v>372</v>
@@ -8705,7 +8699,7 @@
         <v>27</v>
       </c>
       <c r="OA4" s="5" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="OB4" s="3" t="s">
         <v>117</v>
@@ -8768,7 +8762,7 @@
         <v>27</v>
       </c>
       <c r="OV4" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="OW4" s="3" t="s">
         <v>36</v>
@@ -8789,13 +8783,13 @@
         <v>27</v>
       </c>
       <c r="PC4" s="12" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="PD4" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE4" s="12" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="PF4" s="12" t="s">
         <v>431</v>
@@ -8804,13 +8798,13 @@
         <v>432</v>
       </c>
       <c r="PH4" s="12" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="PI4" s="12" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="PJ4" s="12" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="PK4" s="12" t="s">
         <v>27</v>
@@ -8861,10 +8855,10 @@
         <v>36</v>
       </c>
       <c r="QA4" s="19" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="QB4" s="19" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="QC4" s="12" t="s">
         <v>27</v>
@@ -8873,7 +8867,7 @@
         <v>430</v>
       </c>
       <c r="QE4" s="12" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="QF4" s="12" t="s">
         <v>431</v>
@@ -8951,10 +8945,10 @@
         <v>303</v>
       </c>
       <c r="RE4" s="12" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="RF4" s="12" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:474">
@@ -8971,7 +8965,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>592</v>
@@ -9022,10 +9016,10 @@
         <v>27</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>563</v>
@@ -9160,10 +9154,10 @@
         <v>36</v>
       </c>
       <c r="BP5" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="BQ5" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="BR5" s="10" t="s">
         <v>117</v>
@@ -9184,7 +9178,7 @@
         <v>25</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>39</v>
@@ -9232,7 +9226,7 @@
         <v>36</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="CO5" s="12" t="s">
         <v>36</v>
@@ -9340,7 +9334,7 @@
         <v>36</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="DY5" s="12" t="s">
         <v>36</v>
@@ -9760,7 +9754,7 @@
         <v>391</v>
       </c>
       <c r="JH5" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="JI5" s="17" t="s">
         <v>377</v>
@@ -9769,22 +9763,22 @@
         <v>377</v>
       </c>
       <c r="JK5" s="17" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="JL5" s="17" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="JM5" s="17" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="JN5" s="17" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="JO5" s="17" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="JP5" s="17" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="JQ5" s="12" t="s">
         <v>27</v>
@@ -9901,7 +9895,7 @@
         <v>325</v>
       </c>
       <c r="LC5" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="LD5" s="5" t="s">
         <v>395</v>
@@ -9928,10 +9922,10 @@
         <v>205</v>
       </c>
       <c r="LL5" s="5" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="LM5" s="5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="LN5" s="3" t="s">
         <v>36</v>
@@ -10096,7 +10090,7 @@
         <v>325</v>
       </c>
       <c r="NP5" s="3" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="NQ5" s="3" t="s">
         <v>372</v>
@@ -10129,7 +10123,7 @@
         <v>27</v>
       </c>
       <c r="OA5" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="OB5" s="3" t="s">
         <v>117</v>
@@ -10192,7 +10186,7 @@
         <v>27</v>
       </c>
       <c r="OV5" s="5" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="OW5" s="3" t="s">
         <v>36</v>
@@ -10213,13 +10207,13 @@
         <v>27</v>
       </c>
       <c r="PC5" s="12" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="PD5" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE5" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="PF5" s="12" t="s">
         <v>431</v>
@@ -10228,13 +10222,13 @@
         <v>432</v>
       </c>
       <c r="PH5" s="12" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="PI5" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="PJ5" s="12" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="PK5" s="12" t="s">
         <v>27</v>
@@ -10285,10 +10279,10 @@
         <v>36</v>
       </c>
       <c r="QA5" s="19" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="QB5" s="19" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="QC5" s="12" t="s">
         <v>27</v>
@@ -10297,7 +10291,7 @@
         <v>430</v>
       </c>
       <c r="QE5" s="12" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="QF5" s="12" t="s">
         <v>431</v>
@@ -10375,10 +10369,10 @@
         <v>303</v>
       </c>
       <c r="RE5" s="12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="RF5" s="12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:474">
@@ -10395,7 +10389,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>592</v>
@@ -10446,10 +10440,10 @@
         <v>27</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>651</v>
+        <v>765</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>649</v>
+        <v>766</v>
       </c>
       <c r="X6" s="21" t="s">
         <v>563</v>
@@ -10584,10 +10578,10 @@
         <v>36</v>
       </c>
       <c r="BP6" s="10" t="s">
-        <v>659</v>
+        <v>767</v>
       </c>
       <c r="BQ6" s="10" t="s">
-        <v>664</v>
+        <v>50</v>
       </c>
       <c r="BR6" s="10" t="s">
         <v>117</v>
@@ -10608,7 +10602,7 @@
         <v>25</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>668</v>
+        <v>768</v>
       </c>
       <c r="BY6" s="15" t="s">
         <v>39</v>
@@ -10656,7 +10650,7 @@
         <v>36</v>
       </c>
       <c r="CN6" s="12" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="CO6" s="12" t="s">
         <v>36</v>
@@ -10764,7 +10758,7 @@
         <v>36</v>
       </c>
       <c r="DX6" s="12" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="DY6" s="12" t="s">
         <v>36</v>
@@ -11184,7 +11178,7 @@
         <v>391</v>
       </c>
       <c r="JH6" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="JI6" s="17" t="s">
         <v>377</v>
@@ -11193,22 +11187,22 @@
         <v>377</v>
       </c>
       <c r="JK6" s="17" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="JL6" s="17" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="JM6" s="17" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="JN6" s="17" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="JO6" s="17" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="JP6" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="JQ6" s="12" t="s">
         <v>27</v>
@@ -11325,7 +11319,7 @@
         <v>325</v>
       </c>
       <c r="LC6" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="LD6" s="5" t="s">
         <v>395</v>
@@ -11352,10 +11346,10 @@
         <v>205</v>
       </c>
       <c r="LL6" s="5" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="LM6" s="5" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="LN6" s="3" t="s">
         <v>36</v>
@@ -11520,7 +11514,7 @@
         <v>325</v>
       </c>
       <c r="NP6" s="3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="NQ6" s="3" t="s">
         <v>372</v>
@@ -11553,7 +11547,7 @@
         <v>27</v>
       </c>
       <c r="OA6" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="OB6" s="3" t="s">
         <v>117</v>
@@ -11616,7 +11610,7 @@
         <v>27</v>
       </c>
       <c r="OV6" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="OW6" s="3" t="s">
         <v>36</v>
@@ -11637,13 +11631,13 @@
         <v>27</v>
       </c>
       <c r="PC6" s="12" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="PD6" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE6" s="12" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="PF6" s="12" t="s">
         <v>431</v>
@@ -11652,13 +11646,13 @@
         <v>432</v>
       </c>
       <c r="PH6" s="12" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="PI6" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="PJ6" s="12" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="PK6" s="12" t="s">
         <v>27</v>
@@ -11709,10 +11703,10 @@
         <v>36</v>
       </c>
       <c r="QA6" s="19" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="QB6" s="19" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="QC6" s="12" t="s">
         <v>27</v>
@@ -11721,7 +11715,7 @@
         <v>430</v>
       </c>
       <c r="QE6" s="12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="QF6" s="12" t="s">
         <v>431</v>
@@ -11799,10 +11793,10 @@
         <v>303</v>
       </c>
       <c r="RE6" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="RF6" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="785">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -2112,9 +2112,6 @@
     <t>IU98_p</t>
   </si>
   <si>
-    <t>IU99_p</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -2172,9 +2169,6 @@
     <t>1705</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
     <t>15.67.33.90</t>
   </si>
   <si>
@@ -2184,9 +2178,6 @@
     <t>15.67.33.93</t>
   </si>
   <si>
-    <t>15.67.33.94</t>
-  </si>
-  <si>
     <t>SNMpusr3</t>
   </si>
   <si>
@@ -2229,9 +2220,6 @@
     <t>J84</t>
   </si>
   <si>
-    <t>J85</t>
-  </si>
-  <si>
     <t>15.21.35.84</t>
   </si>
   <si>
@@ -2247,9 +2235,6 @@
     <t>C896</t>
   </si>
   <si>
-    <t>C897</t>
-  </si>
-  <si>
     <t>10.83.99.2</t>
   </si>
   <si>
@@ -2325,16 +2310,70 @@
     <t>who_edi041</t>
   </si>
   <si>
-    <t>wholeSale02826</t>
-  </si>
-  <si>
-    <t>TORDNO_A15</t>
-  </si>
-  <si>
-    <t>YG04</t>
-  </si>
-  <si>
-    <t>1504</t>
+    <t>wholeSale028261</t>
+  </si>
+  <si>
+    <t>wholeSale028262</t>
+  </si>
+  <si>
+    <t>TORDNO_A60</t>
+  </si>
+  <si>
+    <t>TORDNO_A61</t>
+  </si>
+  <si>
+    <t>YG61</t>
+  </si>
+  <si>
+    <t>YG62</t>
+  </si>
+  <si>
+    <t>Add Destination IP Address</t>
+  </si>
+  <si>
+    <t>Create Trunk Group</t>
+  </si>
+  <si>
+    <t>IU61_s</t>
+  </si>
+  <si>
+    <t>IU62_s</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1762</t>
+  </si>
+  <si>
+    <t>15.67.33.62</t>
+  </si>
+  <si>
+    <t>15.67.33.63</t>
+  </si>
+  <si>
+    <t>C861</t>
+  </si>
+  <si>
+    <t>C862</t>
+  </si>
+  <si>
+    <t>J61</t>
+  </si>
+  <si>
+    <t>J62</t>
   </si>
 </sst>
 </file>
@@ -2815,9 +2854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RF6"/>
+  <dimension ref="A1:RF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4058,7 +4099,7 @@
         <v>374</v>
       </c>
       <c r="JH1" s="17" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="JI1" s="17" t="s">
         <v>375</v>
@@ -5482,7 +5523,7 @@
         <v>391</v>
       </c>
       <c r="JH2" s="17" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="JI2" s="17" t="s">
         <v>377</v>
@@ -5851,7 +5892,7 @@
         <v>27</v>
       </c>
       <c r="OA2" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="OB2" s="3" t="s">
         <v>117</v>
@@ -5914,7 +5955,7 @@
         <v>27</v>
       </c>
       <c r="OV2" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="OW2" s="3" t="s">
         <v>36</v>
@@ -5935,13 +5976,13 @@
         <v>27</v>
       </c>
       <c r="PC2" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="PD2" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE2" s="12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="PF2" s="12" t="s">
         <v>431</v>
@@ -6120,7 +6161,7 @@
         <v>651</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>27</v>
@@ -6162,16 +6203,16 @@
         <v>36</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>563</v>
@@ -6306,7 +6347,7 @@
         <v>117</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BQ3" s="10" t="s">
         <v>658</v>
@@ -6330,7 +6371,7 @@
         <v>25</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BY3" s="15" t="s">
         <v>39</v>
@@ -6378,7 +6419,7 @@
         <v>36</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="CO3" s="12" t="s">
         <v>36</v>
@@ -6486,7 +6527,7 @@
         <v>36</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="DY3" s="12" t="s">
         <v>36</v>
@@ -6906,7 +6947,7 @@
         <v>391</v>
       </c>
       <c r="JH3" s="17" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="JI3" s="17" t="s">
         <v>377</v>
@@ -7074,10 +7115,10 @@
         <v>205</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="LM3" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="LN3" s="3" t="s">
         <v>36</v>
@@ -7242,7 +7283,7 @@
         <v>325</v>
       </c>
       <c r="NP3" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="NQ3" s="3" t="s">
         <v>372</v>
@@ -7275,7 +7316,7 @@
         <v>27</v>
       </c>
       <c r="OA3" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="OB3" s="3" t="s">
         <v>117</v>
@@ -7359,13 +7400,13 @@
         <v>27</v>
       </c>
       <c r="PC3" s="12" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="PD3" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE3" s="12" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="PF3" s="12" t="s">
         <v>431</v>
@@ -7374,13 +7415,13 @@
         <v>432</v>
       </c>
       <c r="PH3" s="12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="PI3" s="12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="PJ3" s="12" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="PK3" s="12" t="s">
         <v>27</v>
@@ -7431,10 +7472,10 @@
         <v>36</v>
       </c>
       <c r="QA3" s="19" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="QB3" s="19" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="QC3" s="12" t="s">
         <v>27</v>
@@ -7521,10 +7562,10 @@
         <v>303</v>
       </c>
       <c r="RE3" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="RF3" s="12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:474">
@@ -8330,7 +8371,7 @@
         <v>391</v>
       </c>
       <c r="JH4" s="17" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="JI4" s="17" t="s">
         <v>377</v>
@@ -8501,7 +8542,7 @@
         <v>88</v>
       </c>
       <c r="LM4" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="LN4" s="3" t="s">
         <v>36</v>
@@ -8666,7 +8707,7 @@
         <v>325</v>
       </c>
       <c r="NP4" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="NQ4" s="3" t="s">
         <v>372</v>
@@ -8699,7 +8740,7 @@
         <v>27</v>
       </c>
       <c r="OA4" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="OB4" s="3" t="s">
         <v>117</v>
@@ -8762,7 +8803,7 @@
         <v>27</v>
       </c>
       <c r="OV4" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="OW4" s="3" t="s">
         <v>36</v>
@@ -8783,13 +8824,13 @@
         <v>27</v>
       </c>
       <c r="PC4" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="PD4" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE4" s="12" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="PF4" s="12" t="s">
         <v>431</v>
@@ -8798,13 +8839,13 @@
         <v>432</v>
       </c>
       <c r="PH4" s="12" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="PI4" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="PJ4" s="12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="PK4" s="12" t="s">
         <v>27</v>
@@ -8855,10 +8896,10 @@
         <v>36</v>
       </c>
       <c r="QA4" s="19" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="QB4" s="19" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="QC4" s="12" t="s">
         <v>27</v>
@@ -8867,7 +8908,7 @@
         <v>430</v>
       </c>
       <c r="QE4" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="QF4" s="12" t="s">
         <v>431</v>
@@ -8945,10 +8986,10 @@
         <v>303</v>
       </c>
       <c r="RE4" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="RF4" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:474">
@@ -8965,7 +9006,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>592</v>
@@ -9016,10 +9057,10 @@
         <v>27</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>563</v>
@@ -9754,7 +9795,7 @@
         <v>391</v>
       </c>
       <c r="JH5" s="17" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="JI5" s="17" t="s">
         <v>377</v>
@@ -9922,10 +9963,10 @@
         <v>205</v>
       </c>
       <c r="LL5" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="LM5" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="LN5" s="3" t="s">
         <v>36</v>
@@ -10090,7 +10131,7 @@
         <v>325</v>
       </c>
       <c r="NP5" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="NQ5" s="3" t="s">
         <v>372</v>
@@ -10123,7 +10164,7 @@
         <v>27</v>
       </c>
       <c r="OA5" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="OB5" s="3" t="s">
         <v>117</v>
@@ -10186,7 +10227,7 @@
         <v>27</v>
       </c>
       <c r="OV5" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="OW5" s="3" t="s">
         <v>36</v>
@@ -10207,13 +10248,13 @@
         <v>27</v>
       </c>
       <c r="PC5" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="PD5" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE5" s="12" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="PF5" s="12" t="s">
         <v>431</v>
@@ -10222,13 +10263,13 @@
         <v>432</v>
       </c>
       <c r="PH5" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="PI5" s="12" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="PJ5" s="12" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="PK5" s="12" t="s">
         <v>27</v>
@@ -10279,10 +10320,10 @@
         <v>36</v>
       </c>
       <c r="QA5" s="19" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="QB5" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="QC5" s="12" t="s">
         <v>27</v>
@@ -10291,7 +10332,7 @@
         <v>430</v>
       </c>
       <c r="QE5" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="QF5" s="12" t="s">
         <v>431</v>
@@ -10369,15 +10410,15 @@
         <v>303</v>
       </c>
       <c r="RE5" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="RF5" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:474">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>595</v>
@@ -10428,10 +10469,10 @@
         <v>17</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="T6" s="28" t="s">
         <v>646</v>
@@ -10440,10 +10481,10 @@
         <v>27</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="X6" s="21" t="s">
         <v>563</v>
@@ -10578,7 +10619,7 @@
         <v>36</v>
       </c>
       <c r="BP6" s="10" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BQ6" s="10" t="s">
         <v>50</v>
@@ -10602,7 +10643,7 @@
         <v>25</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="BY6" s="15" t="s">
         <v>39</v>
@@ -10650,7 +10691,7 @@
         <v>36</v>
       </c>
       <c r="CN6" s="12" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="CO6" s="12" t="s">
         <v>36</v>
@@ -10758,7 +10799,7 @@
         <v>36</v>
       </c>
       <c r="DX6" s="12" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="DY6" s="12" t="s">
         <v>36</v>
@@ -11175,13 +11216,13 @@
         <v>36</v>
       </c>
       <c r="JG6" s="17" t="s">
-        <v>391</v>
+        <v>770</v>
       </c>
       <c r="JH6" s="17" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="JI6" s="17" t="s">
-        <v>377</v>
+        <v>769</v>
       </c>
       <c r="JJ6" s="17" t="s">
         <v>377</v>
@@ -11319,7 +11360,7 @@
         <v>325</v>
       </c>
       <c r="LC6" s="3" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
       <c r="LD6" s="5" t="s">
         <v>395</v>
@@ -11346,10 +11387,10 @@
         <v>205</v>
       </c>
       <c r="LL6" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="LM6" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="LN6" s="3" t="s">
         <v>36</v>
@@ -11408,8 +11449,8 @@
       <c r="MF6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="MG6" s="3" t="s">
-        <v>27</v>
+      <c r="MG6" s="5" t="s">
+        <v>775</v>
       </c>
       <c r="MH6" s="3" t="s">
         <v>28</v>
@@ -11514,7 +11555,7 @@
         <v>325</v>
       </c>
       <c r="NP6" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="NQ6" s="3" t="s">
         <v>372</v>
@@ -11547,7 +11588,7 @@
         <v>27</v>
       </c>
       <c r="OA6" s="5" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
       <c r="OB6" s="3" t="s">
         <v>117</v>
@@ -11610,7 +11651,7 @@
         <v>27</v>
       </c>
       <c r="OV6" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="OW6" s="3" t="s">
         <v>36</v>
@@ -11631,13 +11672,13 @@
         <v>27</v>
       </c>
       <c r="PC6" s="12" t="s">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="PD6" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE6" s="12" t="s">
-        <v>721</v>
+        <v>779</v>
       </c>
       <c r="PF6" s="12" t="s">
         <v>431</v>
@@ -11646,13 +11687,13 @@
         <v>432</v>
       </c>
       <c r="PH6" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="PI6" s="12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="PJ6" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="PK6" s="12" t="s">
         <v>27</v>
@@ -11703,10 +11744,10 @@
         <v>36</v>
       </c>
       <c r="QA6" s="19" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="QB6" s="19" t="s">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="QC6" s="12" t="s">
         <v>27</v>
@@ -11715,7 +11756,7 @@
         <v>430</v>
       </c>
       <c r="QE6" s="12" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="QF6" s="12" t="s">
         <v>431</v>
@@ -11793,10 +11834,1434 @@
         <v>303</v>
       </c>
       <c r="RE6" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="RF6" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:474">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO7" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AR7" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY7" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="BA7" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB7" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC7" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="BD7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE7" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="BF7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG7" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="BH7" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="BJ7" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="BK7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP7" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="BQ7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT7" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="BU7" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="BW7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX7" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="BY7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="CG7" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="CH7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI7" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ7" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="CK7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL7" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN7" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="CO7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ7" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CR7" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="CS7" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="CT7" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="CU7" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="CV7" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="CW7" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="CX7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="CY7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD7" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="DE7" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="DF7" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="DG7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ7" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="DK7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="DQ7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="DR7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="DS7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="DT7" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="DU7" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="DV7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX7" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="DY7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EA7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="EB7" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="EC7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="ED7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="EF7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="EG7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EH7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI7" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="EJ7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="EK7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EL7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EM7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="EO7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EP7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EQ7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="ER7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="ES7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="ET7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU7" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="EV7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="EW7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EX7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="EZ7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="FA7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FC7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="FD7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="FE7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FF7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FG7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="FH7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="FI7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FJ7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FK7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="FL7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="FM7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FN7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FO7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="FP7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="FQ7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FR7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FS7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="FT7" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="FU7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FV7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FW7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FX7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FY7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="FZ7" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="GA7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GB7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="GC7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GD7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GE7" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="GF7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GG7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GH7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GI7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GJ7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GK7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GL7" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="GM7" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="GN7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GQ7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GR7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GS7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="GT7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GU7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GV7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GW7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GX7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="GZ7" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="HA7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HB7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HC7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HD7" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="HE7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HF7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="HG7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="HH7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HI7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="HJ7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="HK7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HL7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HM7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="HN7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="HO7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HP7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HQ7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="HR7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="HS7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HT7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HU7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="HV7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="HW7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HX7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HY7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="HZ7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="IA7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="IB7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="IC7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="ID7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="IE7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IF7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IG7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="IH7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="II7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IJ7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IK7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="IL7" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="IM7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IO7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="IP7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="IQ7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IR7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IS7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="IT7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="IU7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IV7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IW7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="IX7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="IY7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IZ7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="JA7" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="JB7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="JC7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="JD7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="JE7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="JF7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="JG7" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="JH7" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="JI7" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="JJ7" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="JK7" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="JL7" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="JM7" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="JN7" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="JO7" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="JP7" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="JQ7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JR7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JS7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JT7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JU7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="JV7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="JW7" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="JX7" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="JY7" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="JZ7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KA7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KB7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KC7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KD7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KE7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KF7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KG7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="KH7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="KI7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="KJ7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KK7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KL7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="KM7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="KN7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="KO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KP7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KQ7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KR7" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="KS7" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="KT7" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="KU7" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="KV7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="KW7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="KX7" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="KY7" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="KZ7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="LA7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="LB7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="LC7" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="LD7" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="LE7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="LF7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LG7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LH7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LI7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LJ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LK7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="LL7" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="LM7" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="LN7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="LO7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LP7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="LQ7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="LS7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="LU7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="LV7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LW7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LX7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LY7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LZ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MB7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MC7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MD7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="ME7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MF7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MG7" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="MH7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="MI7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MJ7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="MK7" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="ML7" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="MM7" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="MN7" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="MO7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="MP7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MQ7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MR7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MS7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="MT7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="MU7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="MV7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="MW7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="MX7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="MY7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="MZ7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="NA7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="NB7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="NC7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="ND7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="NE7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="NF7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="NG7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="NH7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="NI7" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="NJ7" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="NK7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="NL7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="NM7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="NN7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="NO7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="NP7" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="NQ7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="NR7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="NS7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NT7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NU7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NV7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NW7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NX7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NY7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NZ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OA7" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="OB7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="OC7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OD7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="OE7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="OF7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OG7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OH7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="OI7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="OJ7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="OK7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="OL7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="OM7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="ON7" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="OO7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OP7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OQ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OR7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OS7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OT7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OU7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OV7" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="OW7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="OX7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OY7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="OZ7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="PA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="PB7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="PC7" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="PD7" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="PE7" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="PF7" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="PG7" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="PH7" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="PI7" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="PJ7" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="PK7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="PL7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="PM7" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="PN7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PO7" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="PP7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PQ7" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="PR7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="PS7" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="PT7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="PU7" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="PV7" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="PW7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="PX7" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="PY7" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="PZ7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="QA7" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="QB7" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="QC7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QD7" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="QE7" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="QF7" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="QG7" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="QH7" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="QI7" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="QJ7" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="QK7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QL7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QM7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QN7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QO7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QP7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QQ7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QR7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QS7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QT7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QU7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QV7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QW7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QX7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QY7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QZ7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RA7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RB7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RC7" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="RD7" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="RE7" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="RF7" s="12" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -11816,8 +13281,11 @@
     <hyperlink ref="M6" r:id="rId13"/>
     <hyperlink ref="BZ6" r:id="rId14"/>
     <hyperlink ref="AH6" r:id="rId15" display="mailto:NGINUser_1306@gmail.com"/>
+    <hyperlink ref="M7" r:id="rId16"/>
+    <hyperlink ref="BZ7" r:id="rId17"/>
+    <hyperlink ref="AH7" r:id="rId18" display="mailto:NGINUser_1306@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_wholeSaleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="796">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1803,9 +1803,6 @@
     <t>edit_SBCmanualconfigValue</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_VoiceService</t>
   </si>
   <si>
@@ -2313,39 +2310,24 @@
     <t>wholeSale028261</t>
   </si>
   <si>
-    <t>wholeSale028262</t>
-  </si>
-  <si>
     <t>TORDNO_A60</t>
   </si>
   <si>
-    <t>TORDNO_A61</t>
-  </si>
-  <si>
     <t>YG61</t>
   </si>
   <si>
-    <t>YG62</t>
-  </si>
-  <si>
     <t>Add Destination IP Address</t>
   </si>
   <si>
     <t>Create Trunk Group</t>
   </si>
   <si>
-    <t>IU61_s</t>
-  </si>
-  <si>
     <t>IU62_s</t>
   </si>
   <si>
     <t>1561</t>
   </si>
   <si>
-    <t>1562</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -2355,25 +2337,76 @@
     <t>1761</t>
   </si>
   <si>
-    <t>1762</t>
-  </si>
-  <si>
     <t>15.67.33.62</t>
   </si>
   <si>
-    <t>15.67.33.63</t>
-  </si>
-  <si>
     <t>C861</t>
   </si>
   <si>
-    <t>C862</t>
-  </si>
-  <si>
     <t>J61</t>
   </si>
   <si>
-    <t>J62</t>
+    <t>WHOSLA90</t>
+  </si>
+  <si>
+    <t>6594719</t>
+  </si>
+  <si>
+    <t>wholesaleRegres_0491</t>
+  </si>
+  <si>
+    <t>WholeSale2E91</t>
+  </si>
+  <si>
+    <t>who_edi091</t>
+  </si>
+  <si>
+    <t>wholeSale028291</t>
+  </si>
+  <si>
+    <t>TORDNO_A91</t>
+  </si>
+  <si>
+    <t>YG91</t>
+  </si>
+  <si>
+    <t>IU91_s</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>15.67.34.09</t>
+  </si>
+  <si>
+    <t>C891</t>
+  </si>
+  <si>
+    <t>J91</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>WHOSLA91</t>
+  </si>
+  <si>
+    <t>6594720</t>
+  </si>
+  <si>
+    <t>wholesaleRegres_0492</t>
+  </si>
+  <si>
+    <t>WholeSale2E92</t>
+  </si>
+  <si>
+    <t>who_edi092</t>
+  </si>
+  <si>
+    <t>wholeSale028292</t>
   </si>
 </sst>
 </file>
@@ -2854,11 +2887,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RF7"/>
+  <dimension ref="A1:RF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3297,11 +3328,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:474">
-      <c r="A1" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>594</v>
+      <c r="A1" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>587</v>
@@ -3430,22 +3461,22 @@
         <v>546</v>
       </c>
       <c r="AS1" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AT1" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="AY1" s="6" t="s">
         <v>547</v>
@@ -3505,16 +3536,16 @@
         <v>585</v>
       </c>
       <c r="BR1" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="BS1" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="BS1" s="11" t="s">
-        <v>614</v>
-      </c>
       <c r="BT1" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="BU1" s="11" t="s">
         <v>611</v>
-      </c>
-      <c r="BU1" s="11" t="s">
-        <v>612</v>
       </c>
       <c r="BV1" s="11" t="s">
         <v>586</v>
@@ -3556,16 +3587,16 @@
         <v>47</v>
       </c>
       <c r="CI1" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="CJ1" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="CJ1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>634</v>
-      </c>
-      <c r="CL1" s="27" t="s">
-        <v>635</v>
       </c>
       <c r="CM1" s="12" t="s">
         <v>40</v>
@@ -4099,7 +4130,7 @@
         <v>374</v>
       </c>
       <c r="JH1" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="JI1" s="17" t="s">
         <v>375</v>
@@ -4725,7 +4756,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>117</v>
@@ -4734,7 +4765,7 @@
         <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>592</v>
@@ -4746,7 +4777,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>22</v>
@@ -4764,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>4</v>
@@ -4779,16 +4810,16 @@
         <v>36</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>563</v>
@@ -4809,13 +4840,13 @@
         <v>566</v>
       </c>
       <c r="AD2" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE2" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AF2" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG2" s="21" t="s">
         <v>567</v>
@@ -4923,10 +4954,10 @@
         <v>36</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="BR2" s="10" t="s">
         <v>117</v>
@@ -4935,19 +4966,19 @@
         <v>117</v>
       </c>
       <c r="BT2" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU2" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV2" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU2" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX2" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BY2" s="15" t="s">
         <v>39</v>
@@ -4983,7 +5014,7 @@
         <v>305</v>
       </c>
       <c r="CJ2" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK2" s="27" t="s">
         <v>36</v>
@@ -4995,7 +5026,7 @@
         <v>36</v>
       </c>
       <c r="CN2" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="CO2" s="12" t="s">
         <v>36</v>
@@ -5004,25 +5035,25 @@
         <v>50</v>
       </c>
       <c r="CQ2" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS2" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT2" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU2" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU2" s="12" t="s">
+      <c r="CV2" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV2" s="12" t="s">
+      <c r="CW2" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW2" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX2" s="12" t="s">
         <v>50</v>
@@ -5043,7 +5074,7 @@
         <v>66</v>
       </c>
       <c r="DD2" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE2" s="12" t="s">
         <v>406</v>
@@ -5061,7 +5092,7 @@
         <v>36</v>
       </c>
       <c r="DJ2" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK2" s="12" t="s">
         <v>108</v>
@@ -5103,7 +5134,7 @@
         <v>36</v>
       </c>
       <c r="DX2" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="DY2" s="12" t="s">
         <v>36</v>
@@ -5115,7 +5146,7 @@
         <v>116</v>
       </c>
       <c r="EB2" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC2" s="12" t="s">
         <v>117</v>
@@ -5247,7 +5278,7 @@
         <v>171</v>
       </c>
       <c r="FT2" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU2" s="12" t="s">
         <v>36</v>
@@ -5280,7 +5311,7 @@
         <v>27</v>
       </c>
       <c r="GE2" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF2" s="16" t="s">
         <v>27</v>
@@ -5523,7 +5554,7 @@
         <v>391</v>
       </c>
       <c r="JH2" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI2" s="17" t="s">
         <v>377</v>
@@ -5568,13 +5599,13 @@
         <v>192</v>
       </c>
       <c r="JW2" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX2" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX2" s="18" t="s">
+      <c r="JY2" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY2" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ2" s="4" t="s">
         <v>27</v>
@@ -5664,7 +5695,7 @@
         <v>325</v>
       </c>
       <c r="LC2" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="LD2" s="5" t="s">
         <v>395</v>
@@ -5769,13 +5800,13 @@
         <v>473</v>
       </c>
       <c r="ML2" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM2" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM2" s="4" t="s">
+      <c r="MN2" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN2" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO2" s="4" t="s">
         <v>50</v>
@@ -5892,7 +5923,7 @@
         <v>27</v>
       </c>
       <c r="OA2" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="OB2" s="3" t="s">
         <v>117</v>
@@ -5955,7 +5986,7 @@
         <v>27</v>
       </c>
       <c r="OV2" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="OW2" s="3" t="s">
         <v>36</v>
@@ -5976,13 +6007,13 @@
         <v>27</v>
       </c>
       <c r="PC2" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="PD2" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE2" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="PF2" s="12" t="s">
         <v>431</v>
@@ -6024,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="PS2" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT2" s="19" t="s">
         <v>117</v>
@@ -6033,7 +6064,7 @@
         <v>453</v>
       </c>
       <c r="PV2" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW2" s="19" t="s">
         <v>117</v>
@@ -6042,16 +6073,16 @@
         <v>454</v>
       </c>
       <c r="PY2" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA2" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="QB2" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="QB2" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="QC2" s="12" t="s">
         <v>27</v>
@@ -6060,7 +6091,7 @@
         <v>430</v>
       </c>
       <c r="QE2" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="QF2" s="12" t="s">
         <v>431</v>
@@ -6149,7 +6180,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>117</v>
@@ -6158,10 +6189,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>27</v>
@@ -6170,7 +6201,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>22</v>
@@ -6188,7 +6219,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>4</v>
@@ -6203,16 +6234,16 @@
         <v>36</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>756</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>757</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>563</v>
@@ -6233,13 +6264,13 @@
         <v>566</v>
       </c>
       <c r="AD3" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AF3" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG3" s="21" t="s">
         <v>567</v>
@@ -6347,10 +6378,10 @@
         <v>117</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="BR3" s="10" t="s">
         <v>117</v>
@@ -6359,19 +6390,19 @@
         <v>117</v>
       </c>
       <c r="BT3" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV3" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU3" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV3" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX3" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="BY3" s="15" t="s">
         <v>39</v>
@@ -6407,7 +6438,7 @@
         <v>305</v>
       </c>
       <c r="CJ3" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK3" s="27" t="s">
         <v>36</v>
@@ -6419,7 +6450,7 @@
         <v>36</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="CO3" s="12" t="s">
         <v>36</v>
@@ -6428,25 +6459,25 @@
         <v>50</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR3" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT3" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU3" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU3" s="12" t="s">
+      <c r="CV3" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV3" s="12" t="s">
+      <c r="CW3" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW3" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX3" s="12" t="s">
         <v>50</v>
@@ -6467,7 +6498,7 @@
         <v>66</v>
       </c>
       <c r="DD3" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE3" s="12" t="s">
         <v>406</v>
@@ -6485,7 +6516,7 @@
         <v>36</v>
       </c>
       <c r="DJ3" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK3" s="12" t="s">
         <v>108</v>
@@ -6527,7 +6558,7 @@
         <v>36</v>
       </c>
       <c r="DX3" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="DY3" s="12" t="s">
         <v>36</v>
@@ -6539,7 +6570,7 @@
         <v>116</v>
       </c>
       <c r="EB3" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC3" s="12" t="s">
         <v>117</v>
@@ -6671,7 +6702,7 @@
         <v>171</v>
       </c>
       <c r="FT3" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU3" s="12" t="s">
         <v>36</v>
@@ -6704,7 +6735,7 @@
         <v>27</v>
       </c>
       <c r="GE3" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF3" s="16" t="s">
         <v>27</v>
@@ -6947,7 +6978,7 @@
         <v>391</v>
       </c>
       <c r="JH3" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI3" s="17" t="s">
         <v>377</v>
@@ -6956,22 +6987,22 @@
         <v>377</v>
       </c>
       <c r="JK3" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="JL3" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="JM3" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="JN3" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="JO3" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="JP3" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="JQ3" s="12" t="s">
         <v>27</v>
@@ -6992,13 +7023,13 @@
         <v>192</v>
       </c>
       <c r="JW3" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX3" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX3" s="18" t="s">
+      <c r="JY3" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY3" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ3" s="4" t="s">
         <v>27</v>
@@ -7088,7 +7119,7 @@
         <v>325</v>
       </c>
       <c r="LC3" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="LD3" s="5" t="s">
         <v>395</v>
@@ -7115,10 +7146,10 @@
         <v>205</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="LM3" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="LN3" s="3" t="s">
         <v>36</v>
@@ -7193,13 +7224,13 @@
         <v>473</v>
       </c>
       <c r="ML3" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM3" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM3" s="4" t="s">
+      <c r="MN3" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN3" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO3" s="4" t="s">
         <v>50</v>
@@ -7283,7 +7314,7 @@
         <v>325</v>
       </c>
       <c r="NP3" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="NQ3" s="3" t="s">
         <v>372</v>
@@ -7316,7 +7347,7 @@
         <v>27</v>
       </c>
       <c r="OA3" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="OB3" s="3" t="s">
         <v>117</v>
@@ -7400,13 +7431,13 @@
         <v>27</v>
       </c>
       <c r="PC3" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="PD3" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE3" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="PF3" s="12" t="s">
         <v>431</v>
@@ -7415,13 +7446,13 @@
         <v>432</v>
       </c>
       <c r="PH3" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="PI3" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="PJ3" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="PK3" s="12" t="s">
         <v>27</v>
@@ -7448,7 +7479,7 @@
         <v>4</v>
       </c>
       <c r="PS3" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT3" s="19" t="s">
         <v>117</v>
@@ -7457,7 +7488,7 @@
         <v>453</v>
       </c>
       <c r="PV3" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW3" s="19" t="s">
         <v>117</v>
@@ -7466,16 +7497,16 @@
         <v>454</v>
       </c>
       <c r="PY3" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ3" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA3" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="QB3" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="QC3" s="12" t="s">
         <v>27</v>
@@ -7562,10 +7593,10 @@
         <v>303</v>
       </c>
       <c r="RE3" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="RF3" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:474">
@@ -7573,7 +7604,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>117</v>
@@ -7582,7 +7613,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>592</v>
@@ -7594,7 +7625,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>22</v>
@@ -7612,7 +7643,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>4</v>
@@ -7627,16 +7658,16 @@
         <v>117</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>563</v>
@@ -7657,13 +7688,13 @@
         <v>566</v>
       </c>
       <c r="AD4" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE4" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AF4" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG4" s="21" t="s">
         <v>567</v>
@@ -7771,10 +7802,10 @@
         <v>117</v>
       </c>
       <c r="BP4" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="BQ4" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BR4" s="10" t="s">
         <v>117</v>
@@ -7783,19 +7814,19 @@
         <v>117</v>
       </c>
       <c r="BT4" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU4" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV4" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU4" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV4" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW4" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="BY4" s="15" t="s">
         <v>39</v>
@@ -7831,7 +7862,7 @@
         <v>305</v>
       </c>
       <c r="CJ4" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK4" s="27" t="s">
         <v>36</v>
@@ -7843,7 +7874,7 @@
         <v>36</v>
       </c>
       <c r="CN4" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="CO4" s="12" t="s">
         <v>36</v>
@@ -7852,25 +7883,25 @@
         <v>50</v>
       </c>
       <c r="CQ4" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR4" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS4" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT4" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU4" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU4" s="12" t="s">
+      <c r="CV4" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV4" s="12" t="s">
+      <c r="CW4" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW4" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX4" s="12" t="s">
         <v>50</v>
@@ -7891,7 +7922,7 @@
         <v>66</v>
       </c>
       <c r="DD4" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE4" s="12" t="s">
         <v>406</v>
@@ -7909,7 +7940,7 @@
         <v>36</v>
       </c>
       <c r="DJ4" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK4" s="12" t="s">
         <v>108</v>
@@ -7951,7 +7982,7 @@
         <v>36</v>
       </c>
       <c r="DX4" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="DY4" s="12" t="s">
         <v>36</v>
@@ -7963,7 +7994,7 @@
         <v>116</v>
       </c>
       <c r="EB4" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC4" s="12" t="s">
         <v>117</v>
@@ -8095,7 +8126,7 @@
         <v>171</v>
       </c>
       <c r="FT4" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU4" s="12" t="s">
         <v>36</v>
@@ -8128,7 +8159,7 @@
         <v>27</v>
       </c>
       <c r="GE4" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF4" s="16" t="s">
         <v>27</v>
@@ -8371,7 +8402,7 @@
         <v>391</v>
       </c>
       <c r="JH4" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI4" s="17" t="s">
         <v>377</v>
@@ -8380,22 +8411,22 @@
         <v>377</v>
       </c>
       <c r="JK4" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="JL4" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="JM4" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="JN4" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="JO4" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="JP4" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="JQ4" s="12" t="s">
         <v>27</v>
@@ -8416,13 +8447,13 @@
         <v>192</v>
       </c>
       <c r="JW4" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX4" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX4" s="18" t="s">
+      <c r="JY4" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY4" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ4" s="4" t="s">
         <v>27</v>
@@ -8512,7 +8543,7 @@
         <v>325</v>
       </c>
       <c r="LC4" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="LD4" s="5" t="s">
         <v>395</v>
@@ -8542,7 +8573,7 @@
         <v>88</v>
       </c>
       <c r="LM4" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="LN4" s="3" t="s">
         <v>36</v>
@@ -8617,13 +8648,13 @@
         <v>473</v>
       </c>
       <c r="ML4" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM4" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM4" s="4" t="s">
+      <c r="MN4" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN4" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO4" s="4" t="s">
         <v>50</v>
@@ -8707,7 +8738,7 @@
         <v>325</v>
       </c>
       <c r="NP4" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="NQ4" s="3" t="s">
         <v>372</v>
@@ -8740,7 +8771,7 @@
         <v>27</v>
       </c>
       <c r="OA4" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="OB4" s="3" t="s">
         <v>117</v>
@@ -8803,7 +8834,7 @@
         <v>27</v>
       </c>
       <c r="OV4" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="OW4" s="3" t="s">
         <v>36</v>
@@ -8824,13 +8855,13 @@
         <v>27</v>
       </c>
       <c r="PC4" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="PD4" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE4" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="PF4" s="12" t="s">
         <v>431</v>
@@ -8839,13 +8870,13 @@
         <v>432</v>
       </c>
       <c r="PH4" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="PI4" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="PJ4" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="PK4" s="12" t="s">
         <v>27</v>
@@ -8872,7 +8903,7 @@
         <v>4</v>
       </c>
       <c r="PS4" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT4" s="19" t="s">
         <v>117</v>
@@ -8881,7 +8912,7 @@
         <v>453</v>
       </c>
       <c r="PV4" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW4" s="19" t="s">
         <v>117</v>
@@ -8890,16 +8921,16 @@
         <v>454</v>
       </c>
       <c r="PY4" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA4" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="QB4" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="QC4" s="12" t="s">
         <v>27</v>
@@ -8908,7 +8939,7 @@
         <v>430</v>
       </c>
       <c r="QE4" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="QF4" s="12" t="s">
         <v>431</v>
@@ -8986,10 +9017,10 @@
         <v>303</v>
       </c>
       <c r="RE4" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="RF4" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:474">
@@ -8997,7 +9028,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>117</v>
@@ -9006,7 +9037,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>592</v>
@@ -9018,7 +9049,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>22</v>
@@ -9036,7 +9067,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>4</v>
@@ -9051,16 +9082,16 @@
         <v>36</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="W5" s="12" t="s">
         <v>743</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>744</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>563</v>
@@ -9081,13 +9112,13 @@
         <v>566</v>
       </c>
       <c r="AD5" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE5" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF5" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG5" s="21" t="s">
         <v>567</v>
@@ -9195,10 +9226,10 @@
         <v>36</v>
       </c>
       <c r="BP5" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="BQ5" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="BR5" s="10" t="s">
         <v>117</v>
@@ -9207,19 +9238,19 @@
         <v>117</v>
       </c>
       <c r="BT5" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU5" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV5" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU5" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV5" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>39</v>
@@ -9255,7 +9286,7 @@
         <v>305</v>
       </c>
       <c r="CJ5" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK5" s="27" t="s">
         <v>36</v>
@@ -9267,7 +9298,7 @@
         <v>36</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="CO5" s="12" t="s">
         <v>36</v>
@@ -9276,25 +9307,25 @@
         <v>50</v>
       </c>
       <c r="CQ5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR5" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS5" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT5" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU5" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU5" s="12" t="s">
+      <c r="CV5" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV5" s="12" t="s">
+      <c r="CW5" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW5" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX5" s="12" t="s">
         <v>50</v>
@@ -9315,7 +9346,7 @@
         <v>66</v>
       </c>
       <c r="DD5" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE5" s="12" t="s">
         <v>406</v>
@@ -9333,7 +9364,7 @@
         <v>36</v>
       </c>
       <c r="DJ5" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK5" s="12" t="s">
         <v>108</v>
@@ -9375,7 +9406,7 @@
         <v>36</v>
       </c>
       <c r="DX5" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="DY5" s="12" t="s">
         <v>36</v>
@@ -9387,7 +9418,7 @@
         <v>116</v>
       </c>
       <c r="EB5" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC5" s="12" t="s">
         <v>117</v>
@@ -9519,7 +9550,7 @@
         <v>171</v>
       </c>
       <c r="FT5" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU5" s="12" t="s">
         <v>36</v>
@@ -9552,7 +9583,7 @@
         <v>27</v>
       </c>
       <c r="GE5" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF5" s="16" t="s">
         <v>27</v>
@@ -9795,7 +9826,7 @@
         <v>391</v>
       </c>
       <c r="JH5" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI5" s="17" t="s">
         <v>377</v>
@@ -9804,22 +9835,22 @@
         <v>377</v>
       </c>
       <c r="JK5" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="JL5" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="JM5" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="JN5" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="JO5" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="JP5" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="JQ5" s="12" t="s">
         <v>27</v>
@@ -9840,13 +9871,13 @@
         <v>192</v>
       </c>
       <c r="JW5" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX5" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX5" s="18" t="s">
+      <c r="JY5" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY5" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ5" s="4" t="s">
         <v>27</v>
@@ -9936,7 +9967,7 @@
         <v>325</v>
       </c>
       <c r="LC5" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="LD5" s="5" t="s">
         <v>395</v>
@@ -9963,10 +9994,10 @@
         <v>205</v>
       </c>
       <c r="LL5" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="LM5" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="LN5" s="3" t="s">
         <v>36</v>
@@ -10041,13 +10072,13 @@
         <v>473</v>
       </c>
       <c r="ML5" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM5" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM5" s="4" t="s">
+      <c r="MN5" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN5" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO5" s="4" t="s">
         <v>50</v>
@@ -10131,7 +10162,7 @@
         <v>325</v>
       </c>
       <c r="NP5" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="NQ5" s="3" t="s">
         <v>372</v>
@@ -10164,7 +10195,7 @@
         <v>27</v>
       </c>
       <c r="OA5" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="OB5" s="3" t="s">
         <v>117</v>
@@ -10227,7 +10258,7 @@
         <v>27</v>
       </c>
       <c r="OV5" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="OW5" s="3" t="s">
         <v>36</v>
@@ -10248,13 +10279,13 @@
         <v>27</v>
       </c>
       <c r="PC5" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="PD5" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE5" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="PF5" s="12" t="s">
         <v>431</v>
@@ -10263,13 +10294,13 @@
         <v>432</v>
       </c>
       <c r="PH5" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="PI5" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="PJ5" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="PK5" s="12" t="s">
         <v>27</v>
@@ -10296,7 +10327,7 @@
         <v>4</v>
       </c>
       <c r="PS5" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT5" s="19" t="s">
         <v>117</v>
@@ -10305,7 +10336,7 @@
         <v>453</v>
       </c>
       <c r="PV5" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW5" s="19" t="s">
         <v>117</v>
@@ -10314,16 +10345,16 @@
         <v>454</v>
       </c>
       <c r="PY5" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA5" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="QB5" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="QC5" s="12" t="s">
         <v>27</v>
@@ -10332,7 +10363,7 @@
         <v>430</v>
       </c>
       <c r="QE5" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="QF5" s="12" t="s">
         <v>431</v>
@@ -10410,10 +10441,10 @@
         <v>303</v>
       </c>
       <c r="RE5" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="RF5" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:474">
@@ -10421,7 +10452,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>117</v>
@@ -10430,7 +10461,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>592</v>
@@ -10442,7 +10473,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>22</v>
@@ -10460,7 +10491,7 @@
         <v>23</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P6" s="19" t="s">
         <v>4</v>
@@ -10475,16 +10506,16 @@
         <v>117</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>760</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>761</v>
       </c>
       <c r="X6" s="21" t="s">
         <v>563</v>
@@ -10505,13 +10536,13 @@
         <v>566</v>
       </c>
       <c r="AD6" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE6" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AF6" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF6" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG6" s="21" t="s">
         <v>567</v>
@@ -10619,7 +10650,7 @@
         <v>36</v>
       </c>
       <c r="BP6" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="BQ6" s="10" t="s">
         <v>50</v>
@@ -10631,19 +10662,19 @@
         <v>117</v>
       </c>
       <c r="BT6" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU6" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV6" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU6" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV6" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="BY6" s="15" t="s">
         <v>39</v>
@@ -10679,7 +10710,7 @@
         <v>305</v>
       </c>
       <c r="CJ6" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK6" s="27" t="s">
         <v>36</v>
@@ -10691,7 +10722,7 @@
         <v>36</v>
       </c>
       <c r="CN6" s="12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="CO6" s="12" t="s">
         <v>36</v>
@@ -10700,25 +10731,25 @@
         <v>50</v>
       </c>
       <c r="CQ6" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR6" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS6" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT6" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU6" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU6" s="12" t="s">
+      <c r="CV6" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV6" s="12" t="s">
+      <c r="CW6" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW6" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX6" s="12" t="s">
         <v>50</v>
@@ -10739,7 +10770,7 @@
         <v>66</v>
       </c>
       <c r="DD6" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE6" s="12" t="s">
         <v>406</v>
@@ -10757,7 +10788,7 @@
         <v>36</v>
       </c>
       <c r="DJ6" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK6" s="12" t="s">
         <v>108</v>
@@ -10799,7 +10830,7 @@
         <v>36</v>
       </c>
       <c r="DX6" s="12" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="DY6" s="12" t="s">
         <v>36</v>
@@ -10811,7 +10842,7 @@
         <v>116</v>
       </c>
       <c r="EB6" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC6" s="12" t="s">
         <v>117</v>
@@ -10943,7 +10974,7 @@
         <v>171</v>
       </c>
       <c r="FT6" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU6" s="12" t="s">
         <v>36</v>
@@ -10976,7 +11007,7 @@
         <v>27</v>
       </c>
       <c r="GE6" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF6" s="16" t="s">
         <v>27</v>
@@ -11216,34 +11247,34 @@
         <v>36</v>
       </c>
       <c r="JG6" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="JH6" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI6" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="JJ6" s="17" t="s">
         <v>377</v>
       </c>
       <c r="JK6" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="JL6" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="JM6" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="JN6" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="JO6" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="JP6" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="JQ6" s="12" t="s">
         <v>27</v>
@@ -11264,13 +11295,13 @@
         <v>192</v>
       </c>
       <c r="JW6" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX6" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX6" s="18" t="s">
+      <c r="JY6" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY6" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ6" s="4" t="s">
         <v>27</v>
@@ -11360,7 +11391,7 @@
         <v>325</v>
       </c>
       <c r="LC6" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="LD6" s="5" t="s">
         <v>395</v>
@@ -11387,10 +11418,10 @@
         <v>205</v>
       </c>
       <c r="LL6" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="LM6" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="LN6" s="3" t="s">
         <v>36</v>
@@ -11450,7 +11481,7 @@
         <v>27</v>
       </c>
       <c r="MG6" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="MH6" s="3" t="s">
         <v>28</v>
@@ -11465,13 +11496,13 @@
         <v>473</v>
       </c>
       <c r="ML6" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM6" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM6" s="4" t="s">
+      <c r="MN6" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN6" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO6" s="4" t="s">
         <v>50</v>
@@ -11555,7 +11586,7 @@
         <v>325</v>
       </c>
       <c r="NP6" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="NQ6" s="3" t="s">
         <v>372</v>
@@ -11588,7 +11619,7 @@
         <v>27</v>
       </c>
       <c r="OA6" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="OB6" s="3" t="s">
         <v>117</v>
@@ -11651,7 +11682,7 @@
         <v>27</v>
       </c>
       <c r="OV6" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="OW6" s="3" t="s">
         <v>36</v>
@@ -11672,13 +11703,13 @@
         <v>27</v>
       </c>
       <c r="PC6" s="12" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="PD6" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE6" s="12" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="PF6" s="12" t="s">
         <v>431</v>
@@ -11687,13 +11718,13 @@
         <v>432</v>
       </c>
       <c r="PH6" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="PI6" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="PJ6" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="PK6" s="12" t="s">
         <v>27</v>
@@ -11720,7 +11751,7 @@
         <v>4</v>
       </c>
       <c r="PS6" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT6" s="19" t="s">
         <v>117</v>
@@ -11729,7 +11760,7 @@
         <v>453</v>
       </c>
       <c r="PV6" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW6" s="19" t="s">
         <v>117</v>
@@ -11738,16 +11769,16 @@
         <v>454</v>
       </c>
       <c r="PY6" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA6" s="19" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="QB6" s="19" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="QC6" s="12" t="s">
         <v>27</v>
@@ -11756,7 +11787,7 @@
         <v>430</v>
       </c>
       <c r="QE6" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="QF6" s="12" t="s">
         <v>431</v>
@@ -11834,27 +11865,27 @@
         <v>303</v>
       </c>
       <c r="RE6" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="RF6" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:474">
       <c r="A7" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>653</v>
+        <v>775</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>592</v>
@@ -11866,7 +11897,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>615</v>
+        <v>776</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>22</v>
@@ -11884,7 +11915,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>4</v>
@@ -11893,22 +11924,22 @@
         <v>17</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="X7" s="21" t="s">
         <v>563</v>
@@ -11929,13 +11960,13 @@
         <v>566</v>
       </c>
       <c r="AD7" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE7" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AF7" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="AG7" s="21" t="s">
         <v>567</v>
@@ -12043,7 +12074,7 @@
         <v>36</v>
       </c>
       <c r="BP7" s="10" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="BQ7" s="10" t="s">
         <v>50</v>
@@ -12055,19 +12086,19 @@
         <v>117</v>
       </c>
       <c r="BT7" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU7" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV7" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="BV7" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="BW7" s="23" t="s">
         <v>25</v>
       </c>
       <c r="BX7" s="15" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="BY7" s="15" t="s">
         <v>39</v>
@@ -12103,7 +12134,7 @@
         <v>305</v>
       </c>
       <c r="CJ7" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CK7" s="27" t="s">
         <v>36</v>
@@ -12115,7 +12146,7 @@
         <v>36</v>
       </c>
       <c r="CN7" s="12" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="CO7" s="12" t="s">
         <v>36</v>
@@ -12124,25 +12155,25 @@
         <v>50</v>
       </c>
       <c r="CQ7" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CR7" s="22" t="s">
         <v>174</v>
       </c>
       <c r="CS7" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CT7" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU7" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="CU7" s="12" t="s">
+      <c r="CV7" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="CV7" s="12" t="s">
+      <c r="CW7" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="CW7" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="CX7" s="12" t="s">
         <v>50</v>
@@ -12163,7 +12194,7 @@
         <v>66</v>
       </c>
       <c r="DD7" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="DE7" s="12" t="s">
         <v>406</v>
@@ -12181,7 +12212,7 @@
         <v>36</v>
       </c>
       <c r="DJ7" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="DK7" s="12" t="s">
         <v>108</v>
@@ -12223,7 +12254,7 @@
         <v>36</v>
       </c>
       <c r="DX7" s="12" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="DY7" s="12" t="s">
         <v>36</v>
@@ -12235,7 +12266,7 @@
         <v>116</v>
       </c>
       <c r="EB7" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="EC7" s="12" t="s">
         <v>117</v>
@@ -12367,7 +12398,7 @@
         <v>171</v>
       </c>
       <c r="FT7" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="FU7" s="12" t="s">
         <v>36</v>
@@ -12400,7 +12431,7 @@
         <v>27</v>
       </c>
       <c r="GE7" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="GF7" s="16" t="s">
         <v>27</v>
@@ -12640,34 +12671,34 @@
         <v>36</v>
       </c>
       <c r="JG7" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="JH7" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="JI7" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="JJ7" s="17" t="s">
         <v>377</v>
       </c>
       <c r="JK7" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="JL7" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="JM7" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="JN7" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="JO7" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="JP7" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="JQ7" s="12" t="s">
         <v>27</v>
@@ -12688,13 +12719,13 @@
         <v>192</v>
       </c>
       <c r="JW7" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX7" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="JX7" s="18" t="s">
+      <c r="JY7" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="JY7" s="18" t="s">
-        <v>642</v>
       </c>
       <c r="JZ7" s="4" t="s">
         <v>27</v>
@@ -12784,7 +12815,7 @@
         <v>325</v>
       </c>
       <c r="LC7" s="3" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="LD7" s="5" t="s">
         <v>395</v>
@@ -12811,10 +12842,10 @@
         <v>205</v>
       </c>
       <c r="LL7" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="LM7" s="5" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="LN7" s="3" t="s">
         <v>36</v>
@@ -12874,7 +12905,7 @@
         <v>27</v>
       </c>
       <c r="MG7" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="MH7" s="3" t="s">
         <v>28</v>
@@ -12889,13 +12920,13 @@
         <v>473</v>
       </c>
       <c r="ML7" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM7" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="MM7" s="4" t="s">
+      <c r="MN7" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="MN7" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="MO7" s="4" t="s">
         <v>50</v>
@@ -12979,7 +13010,7 @@
         <v>325</v>
       </c>
       <c r="NP7" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="NQ7" s="3" t="s">
         <v>372</v>
@@ -13012,7 +13043,7 @@
         <v>27</v>
       </c>
       <c r="OA7" s="5" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="OB7" s="3" t="s">
         <v>117</v>
@@ -13075,7 +13106,7 @@
         <v>27</v>
       </c>
       <c r="OV7" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="OW7" s="3" t="s">
         <v>36</v>
@@ -13096,13 +13127,13 @@
         <v>27</v>
       </c>
       <c r="PC7" s="12" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="PD7" s="12" t="s">
         <v>430</v>
       </c>
       <c r="PE7" s="12" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="PF7" s="12" t="s">
         <v>431</v>
@@ -13111,13 +13142,13 @@
         <v>432</v>
       </c>
       <c r="PH7" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="PI7" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="PJ7" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="PK7" s="12" t="s">
         <v>27</v>
@@ -13144,7 +13175,7 @@
         <v>4</v>
       </c>
       <c r="PS7" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="PT7" s="19" t="s">
         <v>117</v>
@@ -13153,7 +13184,7 @@
         <v>453</v>
       </c>
       <c r="PV7" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="PW7" s="19" t="s">
         <v>117</v>
@@ -13162,16 +13193,16 @@
         <v>454</v>
       </c>
       <c r="PY7" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="PZ7" s="19" t="s">
         <v>36</v>
       </c>
       <c r="QA7" s="19" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="QB7" s="19" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="QC7" s="12" t="s">
         <v>27</v>
@@ -13180,7 +13211,7 @@
         <v>430</v>
       </c>
       <c r="QE7" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="QF7" s="12" t="s">
         <v>431</v>
@@ -13258,10 +13289,1434 @@
         <v>303</v>
       </c>
       <c r="RE7" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="RF7" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:474">
+      <c r="A8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO8" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AS8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY8" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ8" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="BA8" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB8" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC8" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="BD8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE8" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="BF8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG8" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="BH8" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="BJ8" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="BK8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP8" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="BQ8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BU8" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="BW8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX8" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="BY8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="CG8" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="CH8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI8" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="CJ8" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="CK8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL8" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="CM8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN8" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="CO8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ8" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="CR8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="CS8" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="CT8" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CU8" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="CV8" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="CW8" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="CX8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="CY8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD8" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="DE8" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="DF8" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="DG8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ8" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="DK8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="DQ8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="DR8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="DS8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="DT8" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="DU8" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="DV8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="DW8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX8" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="DY8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EA8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="EB8" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="EC8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="ED8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="EF8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="EG8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EH8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI8" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="EJ8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="EK8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EL8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EM8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="EO8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EP8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="EQ8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="ER8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="ES8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="ET8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU8" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="EV8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="EW8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="EX8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="EZ8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="FA8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FC8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="FD8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="FE8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FF8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FG8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="FH8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="FI8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FJ8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FK8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="FL8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="FM8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FN8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FO8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="FP8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="FQ8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="FR8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FS8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="FT8" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="FU8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FV8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FW8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FX8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FY8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="FZ8" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="GA8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GB8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="GC8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GD8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GE8" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="GF8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GG8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GH8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GI8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GJ8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GK8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GL8" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="GM8" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="GN8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO8" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GQ8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GR8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GS8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="GT8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GU8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GV8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GW8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="GX8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="GZ8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="HA8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HB8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HC8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HD8" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="HE8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HF8" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="HG8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="HH8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HI8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="HJ8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="HK8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HL8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HM8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="HN8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="HO8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HP8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="HQ8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="HR8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="HS8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HT8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HU8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="HV8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="HW8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="HX8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="HY8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="HZ8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="IA8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="IB8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="IC8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="ID8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="IE8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IF8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IG8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="IH8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="II8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IJ8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IK8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="IL8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="IM8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IO8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="IP8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="IQ8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IR8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IS8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="IT8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="IU8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="IV8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IW8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="IX8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="IY8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="IZ8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="JA8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="JB8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="JC8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="JD8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="JE8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="JF8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="JG8" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="JH8" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="JI8" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="JJ8" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="JK8" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="JL8" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="JM8" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="JN8" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="JO8" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="JP8" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="JQ8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JR8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JS8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JT8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="JU8" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="JV8" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="JW8" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="JX8" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="JY8" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="JZ8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KA8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KB8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KC8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KD8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KE8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KF8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KG8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="KH8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="KI8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="KJ8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KK8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KL8" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="KM8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="KN8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="KO8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="KP8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="KQ8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KR8" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="KS8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="KT8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="KU8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="KV8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="KW8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="KX8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="KY8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="KZ8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="LA8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="LB8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="LC8" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="LD8" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="LE8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="LF8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LG8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LH8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LI8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LJ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LK8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="LL8" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="LM8" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="LN8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="LO8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LP8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="LQ8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="LS8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="LU8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="LV8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LW8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LX8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LY8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="LZ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MA8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MB8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MC8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MD8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="ME8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MF8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MG8" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="MH8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="MI8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="MJ8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="MK8" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="ML8" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="MM8" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="MN8" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="MO8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="MP8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MQ8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MR8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="MS8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="MT8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="MU8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="MV8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="MW8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="MX8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="MY8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="MZ8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="NA8" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="NB8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="NC8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="ND8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="NE8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="NF8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="NG8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="NH8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="NI8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="NJ8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="NK8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="NL8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="NM8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="NN8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="NO8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="NP8" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="NQ8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="NR8" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="NS8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NT8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NU8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NV8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NW8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NX8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NY8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="NZ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OA8" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="OB8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="OC8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OD8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="OE8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="OF8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OG8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OH8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="OI8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="OJ8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="OK8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="OL8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="OM8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="ON8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="OO8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OP8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OQ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OR8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OS8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OT8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OU8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OV8" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="OW8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="OX8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="OY8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="OZ8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="PA8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="PB8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="PC8" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="PD8" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="PE8" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="PF8" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="PG8" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="PH8" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="PI8" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="PJ8" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="PK8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="PL8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="PM8" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="PN8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PO8" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="PP8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="PQ8" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="PR8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="PS8" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="PT8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="PU8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="PV8" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="PW8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="PX8" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="PY8" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="PZ8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="QA8" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="QB8" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="QC8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QD8" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="QE8" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="QF8" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="QG8" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="QH8" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="QI8" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="QJ8" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="QK8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QL8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="QM8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QN8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QO8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QP8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QQ8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QR8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QS8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QT8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QU8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QV8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QW8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QX8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QY8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="QZ8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RA8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RB8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="RC8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="RD8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="RE8" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="RF8" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -13284,8 +14739,11 @@
     <hyperlink ref="M7" r:id="rId16"/>
     <hyperlink ref="BZ7" r:id="rId17"/>
     <hyperlink ref="AH7" r:id="rId18" display="mailto:NGINUser_1306@gmail.com"/>
+    <hyperlink ref="M8" r:id="rId19"/>
+    <hyperlink ref="BZ8" r:id="rId20"/>
+    <hyperlink ref="AH8" r:id="rId21" display="mailto:NGINUser_1306@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>